--- a/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
+++ b/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="3191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="3194">
   <si>
     <t>ID</t>
   </si>
@@ -11916,7 +11916,16 @@
     <t>&lt;T t="恭喜"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="，成功转生"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="次。"&gt;&lt;/T&gt;</t>
   </si>
   <si>
-    <t>人物转生</t>
+    <t>&lt;T t='装备洗练成功' c='ff00ff00'/&gt;</t>
+  </si>
+  <si>
+    <t>装备洗练</t>
+  </si>
+  <si>
+    <t>&lt;T t='套装点化成功' c='ff00ff00'/&gt;</t>
+  </si>
+  <si>
+    <t>套装点化</t>
   </si>
   <si>
     <t>admin:</t>
@@ -12119,12 +12128,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -12160,28 +12169,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12190,27 +12193,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12223,17 +12211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12255,9 +12235,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12271,40 +12289,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12388,13 +12397,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12421,13 +12425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12439,37 +12437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12487,103 +12455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12601,13 +12473,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12618,6 +12616,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -12637,27 +12659,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12680,23 +12691,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12705,16 +12701,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12723,152 +12721,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12903,7 +12901,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -13297,17 +13294,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2119"/>
+  <dimension ref="A1:D2121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2100" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="C2122" sqref="C2122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="151.125" customWidth="1"/>
@@ -13559,7 +13556,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="1">
@@ -21477,7 +21474,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" ht="16.5" spans="1:4">
       <c r="A699">
         <v>150191</v>
       </c>
@@ -26209,7 +26206,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="1040" spans="1:4">
+    <row r="1040" ht="17.25" spans="1:4">
       <c r="A1040">
         <v>160346</v>
       </c>
@@ -29630,7 +29627,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="1306" customHeight="1" spans="1:3">
+    <row r="1306" ht="15" customHeight="1" spans="1:3">
       <c r="A1306">
         <v>162118</v>
       </c>
@@ -29641,7 +29638,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="1307" customHeight="1" spans="1:3">
+    <row r="1307" ht="15" customHeight="1" spans="1:3">
       <c r="A1307">
         <v>162119</v>
       </c>
@@ -29652,7 +29649,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="1308" customHeight="1" spans="1:3">
+    <row r="1308" ht="15" customHeight="1" spans="1:3">
       <c r="A1308">
         <v>162120</v>
       </c>
@@ -29663,7 +29660,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="1309" customHeight="1" spans="1:3">
+    <row r="1309" ht="15" customHeight="1" spans="1:3">
       <c r="A1309">
         <v>162121</v>
       </c>
@@ -29674,7 +29671,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="1310" customHeight="1" spans="1:3">
+    <row r="1310" ht="15" customHeight="1" spans="1:3">
       <c r="A1310">
         <v>162122</v>
       </c>
@@ -31348,7 +31345,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1448" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1448" customHeight="1" spans="1:4">
       <c r="A1448">
         <v>166058</v>
       </c>
@@ -32940,7 +32937,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="1563" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1563" customHeight="1" spans="1:4">
       <c r="A1563">
         <v>170012</v>
       </c>
@@ -32954,7 +32951,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="1564" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1564" customHeight="1" spans="1:4">
       <c r="A1564">
         <v>170013</v>
       </c>
@@ -32968,7 +32965,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="1565" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1565" customHeight="1" spans="1:4">
       <c r="A1565">
         <v>170014</v>
       </c>
@@ -32982,7 +32979,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="1566" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1566" customHeight="1" spans="1:4">
       <c r="A1566">
         <v>170015</v>
       </c>
@@ -32996,7 +32993,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="1567" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1567" customHeight="1" spans="1:4">
       <c r="A1567">
         <v>170016</v>
       </c>
@@ -33010,7 +33007,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="1568" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1568" customHeight="1" spans="1:4">
       <c r="A1568">
         <v>170017</v>
       </c>
@@ -33024,7 +33021,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="1569" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1569" customHeight="1" spans="1:4">
       <c r="A1569">
         <v>170018</v>
       </c>
@@ -33038,7 +33035,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="1570" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1570" customHeight="1" spans="1:4">
       <c r="A1570">
         <v>170019</v>
       </c>
@@ -33052,7 +33049,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="1571" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1571" customHeight="1" spans="1:4">
       <c r="A1571">
         <v>170020</v>
       </c>
@@ -33066,7 +33063,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1572" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1572" customHeight="1" spans="1:4">
       <c r="A1572">
         <v>170021</v>
       </c>
@@ -33080,7 +33077,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="1573" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1573" customHeight="1" spans="1:4">
       <c r="A1573">
         <v>170022</v>
       </c>
@@ -33094,7 +33091,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="1574" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1574" customHeight="1" spans="1:4">
       <c r="A1574">
         <v>170023</v>
       </c>
@@ -33108,7 +33105,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="1575" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1575" customHeight="1" spans="1:4">
       <c r="A1575">
         <v>170024</v>
       </c>
@@ -33122,7 +33119,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="1576" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1576" customHeight="1" spans="1:4">
       <c r="A1576">
         <v>170025</v>
       </c>
@@ -33136,7 +33133,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="1577" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1577" customHeight="1" spans="1:4">
       <c r="A1577">
         <v>170026</v>
       </c>
@@ -33150,7 +33147,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="1578" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1578" customHeight="1" spans="1:4">
       <c r="A1578">
         <v>170027</v>
       </c>
@@ -39227,7 +39224,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="2017" customHeight="1" spans="1:4">
+    <row r="2017" ht="15" customHeight="1" spans="1:4">
       <c r="A2017">
         <v>191009</v>
       </c>
@@ -40133,7 +40130,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="2084" customHeight="1" spans="1:4">
+    <row r="2084" ht="15" customHeight="1" spans="1:4">
       <c r="A2084">
         <v>194004</v>
       </c>
@@ -40577,7 +40574,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="2116" customHeight="1" spans="1:4">
+    <row r="2116" ht="15" customHeight="1" spans="1:4">
       <c r="A2116">
         <v>194036</v>
       </c>
@@ -40629,8 +40626,30 @@
       <c r="C2119" s="6" t="s">
         <v>3169</v>
       </c>
-      <c r="D2119" s="12" t="s">
+      <c r="D2119" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:4">
+      <c r="A2120">
+        <v>191153</v>
+      </c>
+      <c r="C2120" t="s">
         <v>3170</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:4">
+      <c r="A2121">
+        <v>191154</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>3172</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>3173</v>
       </c>
     </row>
   </sheetData>
@@ -40653,99 +40672,99 @@
       <selection activeCell="A20" sqref="$A20:$XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="80.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3181</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>3182</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>3184</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>3185</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>3188</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1" spans="1:4">
@@ -40756,7 +40775,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="D20" t="s">
         <v>2349</v>
@@ -40770,7 +40789,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>3190</v>
+        <v>3193</v>
       </c>
       <c r="D21" t="s">
         <v>2351</v>

--- a/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
+++ b/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$2119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$2123</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -28,10 +28,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>admin:
+          <t xml:space="preserve">admin:
 MESSAGE_TIP = 1, // 透明框提示
   NPC_MSG = 2, // npc对话框提示
   CHANNEL_MESSAGE = 3, // 消息频道提示
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="3194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198">
   <si>
     <t>ID</t>
   </si>
@@ -10331,7 +10332,7 @@
     <t>&lt;T t="武器转换剩余次数：" c="ff261407"/&gt;&lt;T t="$parameter1$" c="ff00ff00"/&gt;&lt;T t="次。" c="ff261407"/&gt;</t>
   </si>
   <si>
-    <t>&lt;T t='1、所转换的武器必须是原职业使用武器，转换后的武器造型为当前职业使用的武器造型' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='2、每次转换职业后，可获得2次转换武器造型的机会。（转换武器机会不叠加）' c='ff261407' /&gt;&lt;B/&gt;&lt;T t='3、转换武器后，所转换武器有60天冷却时间' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='4、转换前绑定的武器，转换后也为绑定' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='5、武器转换前后属性、特技、特效不会改变' c='ff261407'/&gt;</t>
+    <t>&lt;T t='1、装备点化可以增加属性值' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='2、套装点化可以增加技能或者技能目标' c='ff261407' /&gt;&lt;B/&gt;&lt;T t='3、请把需要点化的装备放在背包' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='4、恭喜发财制作独家版本等你来战' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='5、恭喜发财祝你游戏开心' c='ff261407'/&gt;</t>
   </si>
   <si>
     <t>转武器相关提示</t>
@@ -11914,6 +11915,18 @@
   </si>
   <si>
     <t>&lt;T t="恭喜"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="，成功转生"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="次。"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
+    <t>人物转生</t>
+  </si>
+  <si>
+    <t>&lt;T t="★魔化龙王★准备在"c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$"c="ffffff00"&gt;&lt;/T&gt;&lt;T t="进行破坏，快去消灭他们！"c="ff261407"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
+    <t>魔化黑龙</t>
+  </si>
+  <si>
+    <t>&lt;T t="&lt;奖励公告&gt;恭喜" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ffff0000"&gt;&lt;/T&gt;&lt;T t="击杀魔化龙王获得" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter3$"c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter4$"c="ffff8c00"&gt;&lt;/T&gt;</t>
   </si>
   <si>
     <t>&lt;T t='装备洗练成功' c='ff00ff00'/&gt;</t>
@@ -12129,9 +12142,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -12169,7 +12182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12198,38 +12211,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12242,25 +12231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12274,10 +12246,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12297,8 +12278,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12313,7 +12326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12398,7 +12411,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12425,7 +12438,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFF8080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12437,7 +12516,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12449,19 +12570,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12473,139 +12618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12643,17 +12662,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12673,35 +12701,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12716,6 +12726,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12724,10 +12743,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12736,137 +12755,137 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12901,6 +12920,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -12957,11 +12977,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -13288,20 +13303,21 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D2121"/>
+  <dimension ref="A1:D2123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C1713" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2122" sqref="C2122"/>
+      <selection pane="bottomRight" activeCell="C1713" sqref="C1713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -13556,7 +13572,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="1">
@@ -40626,36 +40642,62 @@
       <c r="C2119" s="6" t="s">
         <v>3169</v>
       </c>
-      <c r="D2119" t="s">
-        <v>3166</v>
+      <c r="D2119" s="12" t="s">
+        <v>3170</v>
       </c>
     </row>
     <row r="2120" spans="1:4">
       <c r="A2120">
-        <v>191153</v>
+        <v>191155</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>2382</v>
       </c>
       <c r="C2120" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="D2120" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="2121" spans="1:4">
       <c r="A2121">
+        <v>191156</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:4">
+      <c r="A2122">
+        <v>191153</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>3174</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:4">
+      <c r="A2123">
         <v>191154</v>
       </c>
-      <c r="C2121" t="s">
-        <v>3172</v>
-      </c>
-      <c r="D2121" t="s">
-        <v>3173</v>
+      <c r="C2123" t="s">
+        <v>3176</v>
+      </c>
+      <c r="D2123" t="s">
+        <v>3177</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2119">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:D2123"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -40664,7 +40706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -40679,92 +40721,92 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3181</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>3188</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1" spans="1:4">
@@ -40775,7 +40817,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="D20" t="s">
         <v>2349</v>
@@ -40789,7 +40831,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="D21" t="s">
         <v>2351</v>

--- a/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
+++ b/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$2125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$2123</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -28,10 +28,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>admin:
+          <t xml:space="preserve">admin:
 MESSAGE_TIP = 1, // 透明框提示
   NPC_MSG = 2, // npc对话框提示
   CHANNEL_MESSAGE = 3, // 消息频道提示
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4753" uniqueCount="3200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198">
   <si>
     <t>ID</t>
   </si>
@@ -11940,12 +11941,6 @@
     <t>套装点化</t>
   </si>
   <si>
-    <t>对方等级不满足条件,无法切磋</t>
-  </si>
-  <si>
-    <t>你在队伍中，无法向单人切磋</t>
-  </si>
-  <si>
     <t>admin:</t>
   </si>
   <si>
@@ -12146,9 +12141,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -12189,7 +12184,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12201,7 +12225,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12231,8 +12278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12241,58 +12289,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12323,15 +12319,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12449,7 +12444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12461,7 +12462,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12473,7 +12492,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12491,85 +12588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12587,49 +12606,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12647,7 +12642,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12669,39 +12718,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12714,179 +12735,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12982,11 +12977,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -13313,20 +13303,21 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D2125"/>
+  <dimension ref="A1:D2123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C1713" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2125" sqref="C2125"/>
+      <selection pane="bottomRight" activeCell="C1713" sqref="C1713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -13335,7 +13326,7 @@
     <col min="3" max="3" width="151.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="92.1" customHeight="1" spans="1:4">
+    <row r="1" ht="92" customHeight="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -40705,38 +40696,8 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="2124" spans="1:4">
-      <c r="A2124">
-        <v>194037</v>
-      </c>
-      <c r="B2124">
-        <v>1</v>
-      </c>
-      <c r="C2124" t="s">
-        <v>3178</v>
-      </c>
-      <c r="D2124" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="2125" spans="1:4">
-      <c r="A2125">
-        <v>194038</v>
-      </c>
-      <c r="B2125">
-        <v>1</v>
-      </c>
-      <c r="C2125" t="s">
-        <v>3179</v>
-      </c>
-      <c r="D2125" t="s">
-        <v>1933</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D2125">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:D2123"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -40745,7 +40706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -40760,92 +40721,92 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1" spans="1:4">
@@ -40856,7 +40817,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="D20" t="s">
         <v>2349</v>
@@ -40870,7 +40831,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="D21" t="s">
         <v>2351</v>

--- a/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
+++ b/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -28,11 +28,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">admin:
+          <t>admin:
 MESSAGE_TIP = 1, // 透明框提示
   NPC_MSG = 2, // npc对话框提示
   CHANNEL_MESSAGE = 3, // 消息频道提示
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="3199">
   <si>
     <t>ID</t>
   </si>
@@ -11941,6 +11940,9 @@
     <t>套装点化</t>
   </si>
   <si>
+    <t>&lt;T t='套装重铸成功' c='ff00ff00'/&gt;</t>
+  </si>
+  <si>
     <t>admin:</t>
   </si>
   <si>
@@ -12141,9 +12143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -12184,6 +12186,57 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -12204,51 +12257,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12259,6 +12276,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12286,47 +12327,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12444,43 +12446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12492,19 +12464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12522,7 +12488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12534,7 +12500,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12546,13 +12554,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12564,7 +12596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12576,43 +12614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12624,7 +12626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12648,21 +12650,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -12680,23 +12667,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12730,8 +12717,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12740,148 +12742,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12977,6 +12979,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -13303,21 +13310,20 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2123"/>
+  <dimension ref="A1:D2124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C1713" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2104" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1713" sqref="C1713"/>
+      <selection pane="bottomRight" activeCell="C2125" sqref="C2125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -40696,8 +40702,21 @@
         <v>3177</v>
       </c>
     </row>
+    <row r="2124" spans="1:4">
+      <c r="A2124">
+        <v>191155</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>3153</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2123"/>
+  <autoFilter ref="A1:D2123">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -40706,7 +40725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -40721,92 +40740,92 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1" spans="1:4">
@@ -40817,7 +40836,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="D20" t="s">
         <v>2349</v>
@@ -40831,7 +40850,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="D21" t="s">
         <v>2351</v>

--- a/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
+++ b/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$2123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$2124</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -12145,8 +12145,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -12184,6 +12184,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -12198,14 +12213,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12220,14 +12289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12256,37 +12318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -12297,38 +12328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12446,7 +12446,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12458,37 +12560,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12500,13 +12608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12518,115 +12626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12637,6 +12637,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -12660,30 +12693,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12714,15 +12723,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -12742,148 +12742,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13323,7 +13323,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2125" sqref="C2125"/>
+      <selection pane="bottomRight" activeCell="A2124" sqref="A2124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -40704,7 +40704,7 @@
     </row>
     <row r="2124" spans="1:4">
       <c r="A2124">
-        <v>191155</v>
+        <v>191159</v>
       </c>
       <c r="C2124" t="s">
         <v>3178</v>
@@ -40714,7 +40714,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2123">
+  <autoFilter ref="A1:D2124">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
+++ b/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\客户端提示信息表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533B1D3C-CB51-4196-81D2-76D1D87501CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="3199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4752" uniqueCount="3200">
   <si>
     <t>ID</t>
   </si>
@@ -3237,7 +3243,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>10</t>
     </r>
@@ -3272,7 +3278,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -3288,7 +3294,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>$parameter2$</t>
     </r>
@@ -3594,7 +3600,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>50</t>
     </r>
@@ -3675,7 +3681,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -3691,7 +3697,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -3708,7 +3714,7 @@
         <sz val="10.5"/>
         <color indexed="17"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="$parameter2$"&gt;&lt;/T&gt;</t>
     </r>
@@ -3724,7 +3730,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -3740,7 +3746,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -3757,7 +3763,7 @@
         <sz val="10.5"/>
         <color indexed="17"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="$parameter2$"&gt;&lt;/T&gt;</t>
     </r>
@@ -3770,7 +3776,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -3786,7 +3792,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -3802,7 +3808,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -3811,7 +3817,7 @@
         <sz val="10.5"/>
         <color indexed="17"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>$parameter1$" c="$parameter2$"&gt;&lt;/T&gt;</t>
     </r>
@@ -3821,7 +3827,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -3837,7 +3843,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;B/&gt;&lt;T t="</t>
     </r>
@@ -3853,7 +3859,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -3869,7 +3875,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;B/&gt;&lt;T t="</t>
     </r>
@@ -3885,7 +3891,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter2$</t>
     </r>
@@ -3901,7 +3907,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;B/&gt;&lt;T t="</t>
     </r>
@@ -3917,7 +3923,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter3$</t>
     </r>
@@ -3933,7 +3939,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;B/&gt;&lt;T t="</t>
     </r>
@@ -3949,7 +3955,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter4$</t>
     </r>
@@ -3965,7 +3971,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;B/&gt;&lt;T t="</t>
     </r>
@@ -3981,7 +3987,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter5$</t>
     </r>
@@ -3997,7 +4003,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;</t>
     </r>
@@ -4027,7 +4033,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -4057,7 +4063,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -4096,7 +4102,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -4122,7 +4128,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$Parameter1$</t>
     </r>
@@ -4138,7 +4144,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -4154,7 +4160,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$Parameter2$$Parameter3$</t>
     </r>
@@ -4301,7 +4307,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$Parameter1$</t>
     </r>
@@ -4317,7 +4323,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -4333,7 +4339,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$Parameter2$$Parameter3$</t>
     </r>
@@ -4351,7 +4357,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$Parameter1$,</t>
     </r>
@@ -4367,7 +4373,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$Parameter2$$Parameter3$</t>
     </r>
@@ -4908,7 +4914,7 @@
         <sz val="10"/>
         <color indexed="60"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -4983,7 +4989,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -5033,7 +5039,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -5108,7 +5114,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -5124,7 +5130,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="$ItemName$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="$ItemNumber$$Unit$</t>
     </r>
@@ -5140,7 +5146,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="$Money$" c="ff00ff00"&gt;&lt;/T&gt;&lt;I s='linshi' i='yb'/&gt;</t>
     </r>
@@ -5153,7 +5159,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -5169,7 +5175,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="$ItemName$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="$ItemNumber$$Unit$</t>
     </r>
@@ -5185,7 +5191,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="$Money$" c="ff00ff00"&gt;&lt;/T&gt;&lt;I s='linshi' i='jb'/&gt;</t>
     </r>
@@ -5206,7 +5212,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>8</t>
     </r>
@@ -5227,7 +5233,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -5243,7 +5249,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;I s='linshi' i='yb'/&gt;</t>
     </r>
@@ -5289,7 +5295,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -5475,7 +5481,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -5491,7 +5497,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -5507,7 +5513,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -5660,7 +5666,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -5915,7 +5921,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -5923,7 +5929,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,13</t>
     </r>
@@ -5936,7 +5942,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -5944,7 +5950,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,13</t>
     </r>
@@ -6022,7 +6028,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter1$,</t>
     </r>
@@ -6038,7 +6044,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter2$,</t>
     </r>
@@ -6054,7 +6060,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>?</t>
     </r>
@@ -6102,7 +6108,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter1$$parameter2$</t>
     </r>
@@ -6118,7 +6124,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter3$</t>
     </r>
@@ -6134,7 +6140,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter4$</t>
     </r>
@@ -6180,7 +6186,7 @@
         <sz val="10"/>
         <color indexed="60"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>IOS</t>
     </r>
@@ -6273,7 +6279,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6391,7 +6397,7 @@
         <sz val="10"/>
         <color indexed="60"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -6416,7 +6422,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -6476,7 +6482,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1,3</t>
     </r>
@@ -6484,7 +6490,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,15</t>
     </r>
@@ -6514,7 +6520,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -6542,7 +6548,7 @@
         <sz val="10"/>
         <color indexed="60"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -6611,7 +6617,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -6658,7 +6664,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -6850,7 +6856,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>?</t>
     </r>
@@ -7116,7 +7122,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -7124,7 +7130,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,15</t>
     </r>
@@ -7163,7 +7169,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -7179,7 +7185,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$Parameter2$</t>
     </r>
@@ -7217,7 +7223,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter1$($parameter2$</t>
     </r>
@@ -7233,7 +7239,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -7378,7 +7384,7 @@
         <sz val="10"/>
         <color indexed="60"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>NPC</t>
     </r>
@@ -7598,7 +7604,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -7614,7 +7620,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="FF1d67fd"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -7630,7 +7636,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3V3</t>
     </r>
@@ -7646,7 +7652,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -7662,7 +7668,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -7729,7 +7735,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4,</t>
     </r>
@@ -7908,7 +7914,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,-</t>
     </r>
@@ -8296,7 +8302,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -8314,7 +8320,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -8332,7 +8338,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>?</t>
     </r>
@@ -8352,7 +8358,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -8370,7 +8376,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -8388,7 +8394,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>?</t>
     </r>
@@ -8704,7 +8710,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -8720,7 +8726,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -8736,7 +8742,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -8846,7 +8852,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -8862,7 +8868,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -8878,7 +8884,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -9187,7 +9193,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -9203,7 +9209,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -9219,7 +9225,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -9232,7 +9238,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -9248,7 +9254,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -9264,7 +9270,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -9277,7 +9283,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -9293,7 +9299,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -9309,7 +9315,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -9322,7 +9328,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -9338,7 +9344,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -9354,7 +9360,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -9456,7 +9462,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -9588,7 +9594,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -9596,7 +9602,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,15</t>
     </r>
@@ -10179,7 +10185,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="$parameter1$" c="ff00ff00"/&gt;&lt;T t="</t>
     </r>
@@ -10195,7 +10201,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"/&gt;&lt;T t="$parameter2$" c="ff00ff00"/&gt;&lt;T t="/" c="ff261407"/&gt;&lt;T t="$parameter3$" c="ff00ff00"/&gt;&lt;T t="</t>
     </r>
@@ -10211,7 +10217,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"/&gt;</t>
     </r>
@@ -10677,7 +10683,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -10693,7 +10699,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -11200,7 +11206,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="$parameter1$" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11218,7 +11224,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11236,7 +11242,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>[</t>
     </r>
@@ -11254,7 +11260,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>]" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11272,7 +11278,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter3$" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter4$" c="$parameter5$"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11290,7 +11296,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -11311,7 +11317,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -11329,7 +11335,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11347,7 +11353,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11365,7 +11371,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter3$" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter4$" c="$parameter5$"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11383,7 +11389,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -11925,9 +11931,6 @@
     <t>魔化黑龙</t>
   </si>
   <si>
-    <t>&lt;T t="&lt;奖励公告&gt;恭喜" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ffff0000"&gt;&lt;/T&gt;&lt;T t="击杀魔化龙王获得" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter3$"c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter4$"c="ffff8c00"&gt;&lt;/T&gt;</t>
-  </si>
-  <si>
     <t>&lt;T t='装备洗练成功' c='ff00ff00'/&gt;</t>
   </si>
   <si>
@@ -11938,9 +11941,6 @@
   </si>
   <si>
     <t>套装点化</t>
-  </si>
-  <si>
-    <t>&lt;T t='套装重铸成功' c='ff00ff00'/&gt;</t>
   </si>
   <si>
     <t>admin:</t>
@@ -12001,7 +12001,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -12017,7 +12017,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -12033,7 +12033,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -12049,7 +12049,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>." c="ff261407"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -12065,7 +12065,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter3$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -12081,7 +12081,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter4$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -12097,7 +12097,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>." c="ff261407"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -12113,7 +12113,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -12129,26 +12129,32 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
   </si>
   <si>
     <t>&lt;T t="您当前副本" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="还有" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="的进度奖励没有获取." c="ff261407"&gt;&lt;/T&gt;&lt;T t="重复挑战已拿到的进度奖励，将只能获得声望奖励." c="ff261407"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
+    <t>&lt;T t='套装重铸成功' c='ff00ff00'/&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;T t='此件装备无法重铸' c='ff00ff00'/&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;T t="&lt;奖励公告&gt;恭喜" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ffff0000"&gt;&lt;/T&gt;&lt;T t="击杀魔化龙王获得" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter3$"c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter4$"c="ffff8c00"&gt;&lt;/T&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="40">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -12180,174 +12186,23 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="17"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -12376,7 +12231,7 @@
       <sz val="10"/>
       <color indexed="60"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -12399,12 +12254,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -12412,8 +12267,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12444,194 +12304,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -12639,255 +12313,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12923,65 +12355,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -13310,29 +12698,28 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2104" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2062" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2124" sqref="A2124"/>
+      <selection pane="bottomRight" activeCell="A2126" sqref="A2126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="151.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="92" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="92.1" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13346,7 +12733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -13357,7 +12744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13368,7 +12755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -13379,7 +12766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -13390,7 +12777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -13401,7 +12788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -13412,7 +12799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -13423,7 +12810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -13434,7 +12821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -13445,7 +12832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -13456,7 +12843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -13467,7 +12854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -13478,7 +12865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -13489,7 +12876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -13500,7 +12887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -13544,7 +12931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
+    <row r="20" spans="1:3" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -13577,7 +12964,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:3">
+    <row r="23" spans="1:3" s="1" customFormat="1">
       <c r="A23" s="13" t="s">
         <v>50</v>
       </c>
@@ -13687,7 +13074,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1" spans="1:3">
+    <row r="33" spans="1:3" ht="12.75" customHeight="1">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -13863,7 +13250,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -13874,7 +13261,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -13885,7 +13272,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:4">
+    <row r="51" spans="1:4" s="1" customFormat="1">
       <c r="A51" s="1">
         <v>140535</v>
       </c>
@@ -13899,7 +13286,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -13910,7 +13297,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -13921,7 +13308,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -13932,7 +13319,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -13943,7 +13330,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -13954,7 +13341,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>140663</v>
       </c>
@@ -13965,7 +13352,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>140664</v>
       </c>
@@ -13976,7 +13363,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -13987,7 +13374,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>123</v>
       </c>
@@ -13998,7 +13385,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -14009,7 +13396,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -14020,7 +13407,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -14031,7 +13418,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -16011,7 +15398,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="244" ht="12.75" customHeight="1" spans="1:3">
+    <row r="244" spans="1:3" ht="12.75" customHeight="1">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -16363,7 +15750,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="276" ht="12.75" customHeight="1" spans="1:3">
+    <row r="276" spans="1:3" ht="12.75" customHeight="1">
       <c r="A276" t="s">
         <v>546</v>
       </c>
@@ -16682,7 +16069,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>601</v>
       </c>
@@ -16693,7 +16080,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>603</v>
       </c>
@@ -16704,7 +16091,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>605</v>
       </c>
@@ -16715,7 +16102,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>607</v>
       </c>
@@ -16726,7 +16113,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>609</v>
       </c>
@@ -16737,7 +16124,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>611</v>
       </c>
@@ -16748,7 +16135,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>612</v>
       </c>
@@ -16759,7 +16146,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>614</v>
       </c>
@@ -16770,7 +16157,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>616</v>
       </c>
@@ -16795,7 +16182,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>621</v>
       </c>
@@ -16806,7 +16193,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>623</v>
       </c>
@@ -16817,7 +16204,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>625</v>
       </c>
@@ -16828,7 +16215,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>627</v>
       </c>
@@ -16839,7 +16226,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>629</v>
       </c>
@@ -16850,7 +16237,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>631</v>
       </c>
@@ -17741,7 +17128,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>791</v>
       </c>
@@ -17752,7 +17139,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>793</v>
       </c>
@@ -17763,7 +17150,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>795</v>
       </c>
@@ -17774,7 +17161,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>797</v>
       </c>
@@ -17785,7 +17172,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>799</v>
       </c>
@@ -17796,7 +17183,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>801</v>
       </c>
@@ -17807,7 +17194,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>803</v>
       </c>
@@ -17818,7 +17205,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>805</v>
       </c>
@@ -17829,7 +17216,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>807</v>
       </c>
@@ -17840,7 +17227,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>809</v>
       </c>
@@ -17851,7 +17238,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>811</v>
       </c>
@@ -17876,7 +17263,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>816</v>
       </c>
@@ -17887,7 +17274,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>818</v>
       </c>
@@ -17898,7 +17285,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>820</v>
       </c>
@@ -17909,7 +17296,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>822</v>
       </c>
@@ -17934,7 +17321,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>827</v>
       </c>
@@ -17945,7 +17332,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>829</v>
       </c>
@@ -17956,7 +17343,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>831</v>
       </c>
@@ -17967,7 +17354,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>833</v>
       </c>
@@ -17978,7 +17365,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>835</v>
       </c>
@@ -17989,7 +17376,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>837</v>
       </c>
@@ -18000,7 +17387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>838</v>
       </c>
@@ -18011,7 +17398,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
         <v>840</v>
       </c>
@@ -18022,7 +17409,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
         <v>842</v>
       </c>
@@ -18033,7 +17420,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
         <v>844</v>
       </c>
@@ -18044,7 +17431,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
         <v>846</v>
       </c>
@@ -18055,7 +17442,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
         <v>848</v>
       </c>
@@ -18066,7 +17453,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>850</v>
       </c>
@@ -18077,7 +17464,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>852</v>
       </c>
@@ -18088,7 +17475,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>854</v>
       </c>
@@ -19155,7 +18542,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:4">
       <c r="A529" t="s">
         <v>1042</v>
       </c>
@@ -19166,7 +18553,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:4">
       <c r="A530">
         <v>150001</v>
       </c>
@@ -20073,7 +19460,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:4">
       <c r="A595">
         <v>150075</v>
       </c>
@@ -20518,7 +19905,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:4">
       <c r="A627">
         <v>150108</v>
       </c>
@@ -21229,7 +20616,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:4">
       <c r="A678">
         <v>150161</v>
       </c>
@@ -21240,7 +20627,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:4">
       <c r="A679">
         <v>150162</v>
       </c>
@@ -21251,7 +20638,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:4">
       <c r="A680">
         <v>150163</v>
       </c>
@@ -21262,7 +20649,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:4">
       <c r="A681">
         <v>150164</v>
       </c>
@@ -21273,7 +20660,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:4">
       <c r="A682">
         <v>150165</v>
       </c>
@@ -21284,7 +20671,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:4">
       <c r="A683">
         <v>150166</v>
       </c>
@@ -21295,7 +20682,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:4">
       <c r="A684">
         <v>150167</v>
       </c>
@@ -21306,7 +20693,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:4">
       <c r="A685">
         <v>150168</v>
       </c>
@@ -21373,7 +20760,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:4">
       <c r="A690">
         <v>150173</v>
       </c>
@@ -21496,7 +20883,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="699" ht="16.5" spans="1:4">
+    <row r="699" spans="1:4" ht="16.5">
       <c r="A699">
         <v>150191</v>
       </c>
@@ -23372,7 +22759,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="833" spans="1:3">
+    <row r="833" spans="1:4">
       <c r="A833">
         <v>160067</v>
       </c>
@@ -24097,7 +23484,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="885" spans="1:3">
+    <row r="885" spans="1:4">
       <c r="A885">
         <v>160149</v>
       </c>
@@ -24108,7 +23495,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="886" spans="1:3">
+    <row r="886" spans="1:4">
       <c r="A886">
         <v>160150</v>
       </c>
@@ -24119,7 +23506,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="887" spans="1:3">
+    <row r="887" spans="1:4">
       <c r="A887">
         <v>160151</v>
       </c>
@@ -24130,7 +23517,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="888" spans="1:3">
+    <row r="888" spans="1:4">
       <c r="A888">
         <v>160152</v>
       </c>
@@ -24141,7 +23528,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="889" spans="1:3">
+    <row r="889" spans="1:4">
       <c r="A889">
         <v>160153</v>
       </c>
@@ -24152,7 +23539,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="890" spans="1:3">
+    <row r="890" spans="1:4">
       <c r="A890">
         <v>160154</v>
       </c>
@@ -24163,7 +23550,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="891" spans="1:3">
+    <row r="891" spans="1:4">
       <c r="A891">
         <v>160155</v>
       </c>
@@ -24174,7 +23561,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="892" spans="1:3">
+    <row r="892" spans="1:4">
       <c r="A892">
         <v>160156</v>
       </c>
@@ -24745,7 +24132,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="933" spans="1:3">
+    <row r="933" spans="1:4">
       <c r="A933">
         <v>160197</v>
       </c>
@@ -25316,7 +24703,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="974" spans="1:3">
+    <row r="974" spans="1:4">
       <c r="A974">
         <v>160238</v>
       </c>
@@ -25355,7 +24742,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="977" spans="1:3">
+    <row r="977" spans="1:4">
       <c r="A977">
         <v>160241</v>
       </c>
@@ -25366,7 +24753,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="978" spans="1:3">
+    <row r="978" spans="1:4">
       <c r="A978">
         <v>160242</v>
       </c>
@@ -26021,7 +25408,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="1025" spans="1:3">
+    <row r="1025" spans="1:4">
       <c r="A1025">
         <v>160331</v>
       </c>
@@ -26228,7 +25615,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="1040" ht="17.25" spans="1:4">
+    <row r="1040" spans="1:4" ht="17.25">
       <c r="A1040">
         <v>160346</v>
       </c>
@@ -27880,7 +27267,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="1158" spans="1:3">
+    <row r="1158" spans="1:4">
       <c r="A1158">
         <v>160480</v>
       </c>
@@ -28353,7 +27740,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="1192" spans="1:3">
+    <row r="1192" spans="1:4">
       <c r="A1192">
         <v>162004</v>
       </c>
@@ -28364,7 +27751,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="1193" spans="1:3">
+    <row r="1193" spans="1:4">
       <c r="A1193">
         <v>162005</v>
       </c>
@@ -28375,7 +27762,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="1194" spans="1:3">
+    <row r="1194" spans="1:4">
       <c r="A1194">
         <v>162006</v>
       </c>
@@ -28386,7 +27773,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="1195" spans="1:3">
+    <row r="1195" spans="1:4">
       <c r="A1195">
         <v>162007</v>
       </c>
@@ -28397,7 +27784,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="1196" spans="1:3">
+    <row r="1196" spans="1:4">
       <c r="A1196">
         <v>162008</v>
       </c>
@@ -28408,7 +27795,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="1197" spans="1:3">
+    <row r="1197" spans="1:4">
       <c r="A1197">
         <v>162009</v>
       </c>
@@ -28419,7 +27806,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="1198" spans="1:3">
+    <row r="1198" spans="1:4">
       <c r="A1198">
         <v>162010</v>
       </c>
@@ -28430,7 +27817,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="1199" spans="1:3">
+    <row r="1199" spans="1:4">
       <c r="A1199">
         <v>162011</v>
       </c>
@@ -28441,7 +27828,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="1200" spans="1:3">
+    <row r="1200" spans="1:4">
       <c r="A1200">
         <v>162012</v>
       </c>
@@ -28452,7 +27839,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="1201" spans="1:3">
+    <row r="1201" spans="1:4">
       <c r="A1201">
         <v>162013</v>
       </c>
@@ -28463,7 +27850,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="1202" spans="1:3">
+    <row r="1202" spans="1:4">
       <c r="A1202">
         <v>162014</v>
       </c>
@@ -28474,7 +27861,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="1203" spans="1:3">
+    <row r="1203" spans="1:4">
       <c r="A1203">
         <v>162015</v>
       </c>
@@ -28485,7 +27872,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="1204" spans="1:3">
+    <row r="1204" spans="1:4">
       <c r="A1204">
         <v>162016</v>
       </c>
@@ -28496,7 +27883,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="1205" spans="1:3">
+    <row r="1205" spans="1:4">
       <c r="A1205">
         <v>162017</v>
       </c>
@@ -28507,7 +27894,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="1206" spans="1:3">
+    <row r="1206" spans="1:4">
       <c r="A1206">
         <v>162018</v>
       </c>
@@ -28518,7 +27905,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="1207" spans="1:3">
+    <row r="1207" spans="1:4">
       <c r="A1207">
         <v>162019</v>
       </c>
@@ -28529,7 +27916,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="1208" spans="1:3">
+    <row r="1208" spans="1:4">
       <c r="A1208">
         <v>162020</v>
       </c>
@@ -28540,7 +27927,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="1209" spans="1:3">
+    <row r="1209" spans="1:4">
       <c r="A1209">
         <v>162021</v>
       </c>
@@ -28551,7 +27938,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="1210" spans="1:3">
+    <row r="1210" spans="1:4">
       <c r="A1210">
         <v>162022</v>
       </c>
@@ -28562,7 +27949,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="1211" spans="1:3">
+    <row r="1211" spans="1:4">
       <c r="A1211">
         <v>162023</v>
       </c>
@@ -28573,7 +27960,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="1212" spans="1:3">
+    <row r="1212" spans="1:4">
       <c r="A1212">
         <v>162024</v>
       </c>
@@ -28724,7 +28111,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="1223" spans="1:3">
+    <row r="1223" spans="1:4">
       <c r="A1223">
         <v>162035</v>
       </c>
@@ -28735,7 +28122,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="1224" spans="1:3">
+    <row r="1224" spans="1:4">
       <c r="A1224">
         <v>162036</v>
       </c>
@@ -28746,7 +28133,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="1225" spans="1:3">
+    <row r="1225" spans="1:4">
       <c r="A1225">
         <v>162037</v>
       </c>
@@ -28757,7 +28144,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="1226" spans="1:3">
+    <row r="1226" spans="1:4">
       <c r="A1226">
         <v>162038</v>
       </c>
@@ -28768,7 +28155,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="1227" spans="1:3">
+    <row r="1227" spans="1:4">
       <c r="A1227">
         <v>162039</v>
       </c>
@@ -28779,7 +28166,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="1228" spans="1:3">
+    <row r="1228" spans="1:4">
       <c r="A1228">
         <v>162040</v>
       </c>
@@ -28790,7 +28177,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="1229" spans="1:3">
+    <row r="1229" spans="1:4">
       <c r="A1229">
         <v>162041</v>
       </c>
@@ -28801,7 +28188,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1230" spans="1:3">
+    <row r="1230" spans="1:4">
       <c r="A1230">
         <v>162042</v>
       </c>
@@ -28812,7 +28199,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="1231" spans="1:3">
+    <row r="1231" spans="1:4">
       <c r="A1231">
         <v>162043</v>
       </c>
@@ -28823,7 +28210,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="1232" spans="1:3">
+    <row r="1232" spans="1:4">
       <c r="A1232">
         <v>162044</v>
       </c>
@@ -28834,7 +28221,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="1233" spans="1:3">
+    <row r="1233" spans="1:4">
       <c r="A1233">
         <v>162045</v>
       </c>
@@ -28845,7 +28232,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="1234" spans="1:3">
+    <row r="1234" spans="1:4">
       <c r="A1234">
         <v>162046</v>
       </c>
@@ -28856,7 +28243,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="1235" spans="1:3">
+    <row r="1235" spans="1:4">
       <c r="A1235">
         <v>162047</v>
       </c>
@@ -28867,7 +28254,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="1236" spans="1:3">
+    <row r="1236" spans="1:4">
       <c r="A1236">
         <v>162048</v>
       </c>
@@ -28878,7 +28265,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="1237" spans="1:3">
+    <row r="1237" spans="1:4">
       <c r="A1237">
         <v>162049</v>
       </c>
@@ -28889,7 +28276,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="1238" spans="1:3">
+    <row r="1238" spans="1:4">
       <c r="A1238">
         <v>162050</v>
       </c>
@@ -28900,7 +28287,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="1239" spans="1:3">
+    <row r="1239" spans="1:4">
       <c r="A1239">
         <v>162051</v>
       </c>
@@ -28911,7 +28298,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="1240" spans="1:3">
+    <row r="1240" spans="1:4">
       <c r="A1240">
         <v>162052</v>
       </c>
@@ -28922,7 +28309,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="1241" spans="1:3">
+    <row r="1241" spans="1:4">
       <c r="A1241">
         <v>162053</v>
       </c>
@@ -28933,7 +28320,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="1242" spans="1:3">
+    <row r="1242" spans="1:4">
       <c r="A1242">
         <v>162054</v>
       </c>
@@ -28944,7 +28331,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="1243" spans="1:3">
+    <row r="1243" spans="1:4">
       <c r="A1243">
         <v>162055</v>
       </c>
@@ -28997,7 +28384,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="1247" spans="1:3">
+    <row r="1247" spans="1:4">
       <c r="A1247">
         <v>162059</v>
       </c>
@@ -29008,7 +28395,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="1248" spans="1:3">
+    <row r="1248" spans="1:4">
       <c r="A1248">
         <v>162060</v>
       </c>
@@ -29019,7 +28406,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="1249" spans="1:3">
+    <row r="1249" spans="1:4">
       <c r="A1249">
         <v>162061</v>
       </c>
@@ -29030,7 +28417,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="1250" spans="1:3">
+    <row r="1250" spans="1:4">
       <c r="A1250">
         <v>162062</v>
       </c>
@@ -29041,7 +28428,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="1251" spans="1:3">
+    <row r="1251" spans="1:4">
       <c r="A1251">
         <v>162063</v>
       </c>
@@ -29052,7 +28439,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="1252" spans="1:3">
+    <row r="1252" spans="1:4">
       <c r="A1252">
         <v>162064</v>
       </c>
@@ -29077,7 +28464,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="1254" spans="1:3">
+    <row r="1254" spans="1:4">
       <c r="A1254">
         <v>162066</v>
       </c>
@@ -29088,7 +28475,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="1255" spans="1:3">
+    <row r="1255" spans="1:4">
       <c r="A1255">
         <v>162067</v>
       </c>
@@ -29099,7 +28486,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="1256" spans="1:3">
+    <row r="1256" spans="1:4">
       <c r="A1256">
         <v>162068</v>
       </c>
@@ -29110,7 +28497,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="1257" spans="1:3">
+    <row r="1257" spans="1:4">
       <c r="A1257">
         <v>162069</v>
       </c>
@@ -29121,7 +28508,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="1258" spans="1:3">
+    <row r="1258" spans="1:4">
       <c r="A1258">
         <v>162070</v>
       </c>
@@ -29132,7 +28519,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="1259" spans="1:3">
+    <row r="1259" spans="1:4">
       <c r="A1259">
         <v>162071</v>
       </c>
@@ -29143,7 +28530,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="1260" spans="1:3">
+    <row r="1260" spans="1:4">
       <c r="A1260">
         <v>162072</v>
       </c>
@@ -29154,7 +28541,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="1261" spans="1:3">
+    <row r="1261" spans="1:4">
       <c r="A1261">
         <v>162073</v>
       </c>
@@ -29165,7 +28552,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="1262" spans="1:3">
+    <row r="1262" spans="1:4">
       <c r="A1262">
         <v>162074</v>
       </c>
@@ -29176,7 +28563,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="1263" spans="1:3">
+    <row r="1263" spans="1:4">
       <c r="A1263">
         <v>162075</v>
       </c>
@@ -29187,7 +28574,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="1264" spans="1:3">
+    <row r="1264" spans="1:4">
       <c r="A1264">
         <v>162076</v>
       </c>
@@ -29649,7 +29036,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="1306" ht="15" customHeight="1" spans="1:3">
+    <row r="1306" spans="1:3" ht="15" customHeight="1">
       <c r="A1306">
         <v>162118</v>
       </c>
@@ -29660,7 +29047,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="1307" ht="15" customHeight="1" spans="1:3">
+    <row r="1307" spans="1:3" ht="15" customHeight="1">
       <c r="A1307">
         <v>162119</v>
       </c>
@@ -29671,7 +29058,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="1308" ht="15" customHeight="1" spans="1:3">
+    <row r="1308" spans="1:3" ht="15" customHeight="1">
       <c r="A1308">
         <v>162120</v>
       </c>
@@ -29682,7 +29069,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="1309" ht="15" customHeight="1" spans="1:3">
+    <row r="1309" spans="1:3" ht="15" customHeight="1">
       <c r="A1309">
         <v>162121</v>
       </c>
@@ -29693,7 +29080,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="1310" ht="15" customHeight="1" spans="1:3">
+    <row r="1310" spans="1:3" ht="15" customHeight="1">
       <c r="A1310">
         <v>162122</v>
       </c>
@@ -29704,7 +29091,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="1311" ht="18" customHeight="1" spans="1:3">
+    <row r="1311" spans="1:3" ht="18" customHeight="1">
       <c r="A1311">
         <v>162123</v>
       </c>
@@ -29715,7 +29102,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="1312" ht="18" customHeight="1" spans="1:3">
+    <row r="1312" spans="1:3" ht="18" customHeight="1">
       <c r="A1312">
         <v>162124</v>
       </c>
@@ -29726,7 +29113,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="1313" ht="18" customHeight="1" spans="1:3">
+    <row r="1313" spans="1:3" ht="18" customHeight="1">
       <c r="A1313">
         <v>162125</v>
       </c>
@@ -29737,7 +29124,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="1314" ht="18" customHeight="1" spans="1:3">
+    <row r="1314" spans="1:3" ht="18" customHeight="1">
       <c r="A1314">
         <v>162126</v>
       </c>
@@ -29748,7 +29135,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="1315" ht="18" customHeight="1" spans="1:3">
+    <row r="1315" spans="1:3" ht="18" customHeight="1">
       <c r="A1315">
         <v>162127</v>
       </c>
@@ -29759,7 +29146,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="1316" ht="18" customHeight="1" spans="1:3">
+    <row r="1316" spans="1:3" ht="18" customHeight="1">
       <c r="A1316">
         <v>162128</v>
       </c>
@@ -29770,7 +29157,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="1317" ht="18" customHeight="1" spans="1:3">
+    <row r="1317" spans="1:3" ht="18" customHeight="1">
       <c r="A1317">
         <v>162129</v>
       </c>
@@ -29781,7 +29168,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="1318" ht="18" customHeight="1" spans="1:3">
+    <row r="1318" spans="1:3" ht="18" customHeight="1">
       <c r="A1318">
         <v>162130</v>
       </c>
@@ -29792,7 +29179,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="1319" ht="18" customHeight="1" spans="1:3">
+    <row r="1319" spans="1:3" ht="18" customHeight="1">
       <c r="A1319">
         <v>162131</v>
       </c>
@@ -29803,7 +29190,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="1320" ht="18" customHeight="1" spans="1:3">
+    <row r="1320" spans="1:3" ht="18" customHeight="1">
       <c r="A1320">
         <v>162132</v>
       </c>
@@ -29814,7 +29201,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="1321" ht="18" customHeight="1" spans="1:3">
+    <row r="1321" spans="1:3" ht="18" customHeight="1">
       <c r="A1321">
         <v>162133</v>
       </c>
@@ -29825,7 +29212,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="1322" ht="18" customHeight="1" spans="1:3">
+    <row r="1322" spans="1:3" ht="18" customHeight="1">
       <c r="A1322">
         <v>162134</v>
       </c>
@@ -29836,7 +29223,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="1323" ht="18" customHeight="1" spans="1:3">
+    <row r="1323" spans="1:3" ht="18" customHeight="1">
       <c r="A1323">
         <v>162135</v>
       </c>
@@ -29847,7 +29234,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="1324" ht="18" customHeight="1" spans="1:3">
+    <row r="1324" spans="1:3" ht="18" customHeight="1">
       <c r="A1324">
         <v>162136</v>
       </c>
@@ -29858,7 +29245,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="1325" ht="18" customHeight="1" spans="1:3">
+    <row r="1325" spans="1:3" ht="18" customHeight="1">
       <c r="A1325">
         <v>162137</v>
       </c>
@@ -29869,7 +29256,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="1326" ht="18" customHeight="1" spans="1:3">
+    <row r="1326" spans="1:3" ht="18" customHeight="1">
       <c r="A1326">
         <v>162138</v>
       </c>
@@ -29880,7 +29267,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="1327" ht="18" customHeight="1" spans="1:3">
+    <row r="1327" spans="1:3" ht="18" customHeight="1">
       <c r="A1327">
         <v>162139</v>
       </c>
@@ -29891,7 +29278,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="1328" ht="18" customHeight="1" spans="1:3">
+    <row r="1328" spans="1:3" ht="18" customHeight="1">
       <c r="A1328">
         <v>162140</v>
       </c>
@@ -29902,7 +29289,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="1329" ht="18" customHeight="1" spans="1:3">
+    <row r="1329" spans="1:3" ht="18" customHeight="1">
       <c r="A1329">
         <v>162141</v>
       </c>
@@ -29913,7 +29300,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="1330" ht="18" customHeight="1" spans="1:3">
+    <row r="1330" spans="1:3" ht="18" customHeight="1">
       <c r="A1330">
         <v>162142</v>
       </c>
@@ -29924,7 +29311,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="1331" ht="18" customHeight="1" spans="1:3">
+    <row r="1331" spans="1:3" ht="18" customHeight="1">
       <c r="A1331">
         <v>162143</v>
       </c>
@@ -29935,7 +29322,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="1332" ht="18" customHeight="1" spans="1:3">
+    <row r="1332" spans="1:3" ht="18" customHeight="1">
       <c r="A1332">
         <v>162144</v>
       </c>
@@ -29946,7 +29333,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="1333" ht="18" customHeight="1" spans="1:3">
+    <row r="1333" spans="1:3" ht="18" customHeight="1">
       <c r="A1333">
         <v>162145</v>
       </c>
@@ -29957,7 +29344,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="1334" ht="18" customHeight="1" spans="1:3">
+    <row r="1334" spans="1:3" ht="18" customHeight="1">
       <c r="A1334">
         <v>162146</v>
       </c>
@@ -29968,7 +29355,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="1335" ht="18" customHeight="1" spans="1:3">
+    <row r="1335" spans="1:3" ht="18" customHeight="1">
       <c r="A1335">
         <v>162147</v>
       </c>
@@ -29979,7 +29366,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="1336" ht="18" customHeight="1" spans="1:3">
+    <row r="1336" spans="1:3" ht="18" customHeight="1">
       <c r="A1336">
         <v>162148</v>
       </c>
@@ -29990,7 +29377,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="1337" ht="18" customHeight="1" spans="1:3">
+    <row r="1337" spans="1:3" ht="18" customHeight="1">
       <c r="A1337">
         <v>162149</v>
       </c>
@@ -30001,7 +29388,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="1338" ht="18" customHeight="1" spans="1:3">
+    <row r="1338" spans="1:3" ht="18" customHeight="1">
       <c r="A1338">
         <v>162150</v>
       </c>
@@ -30012,7 +29399,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="1339" ht="18" customHeight="1" spans="1:3">
+    <row r="1339" spans="1:3" ht="18" customHeight="1">
       <c r="A1339">
         <v>162151</v>
       </c>
@@ -30023,7 +29410,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="1340" ht="18" customHeight="1" spans="1:3">
+    <row r="1340" spans="1:3" ht="18" customHeight="1">
       <c r="A1340">
         <v>162152</v>
       </c>
@@ -30034,7 +29421,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="1341" ht="18" customHeight="1" spans="1:3">
+    <row r="1341" spans="1:3" ht="18" customHeight="1">
       <c r="A1341">
         <v>162153</v>
       </c>
@@ -30045,7 +29432,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="1342" ht="18" customHeight="1" spans="1:3">
+    <row r="1342" spans="1:3" ht="18" customHeight="1">
       <c r="A1342">
         <v>162154</v>
       </c>
@@ -30056,7 +29443,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="1343" ht="18" customHeight="1" spans="1:3">
+    <row r="1343" spans="1:3" ht="18" customHeight="1">
       <c r="A1343">
         <v>162155</v>
       </c>
@@ -30067,7 +29454,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="1344" ht="18" customHeight="1" spans="1:3">
+    <row r="1344" spans="1:3" ht="18" customHeight="1">
       <c r="A1344">
         <v>162156</v>
       </c>
@@ -30078,7 +29465,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="1345" ht="18" customHeight="1" spans="1:3">
+    <row r="1345" spans="1:3" ht="18" customHeight="1">
       <c r="A1345">
         <v>162157</v>
       </c>
@@ -30089,7 +29476,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="1346" ht="18" customHeight="1" spans="1:3">
+    <row r="1346" spans="1:3" ht="18" customHeight="1">
       <c r="A1346">
         <v>162158</v>
       </c>
@@ -30100,7 +29487,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="1347" ht="18" customHeight="1" spans="1:3">
+    <row r="1347" spans="1:3" ht="18" customHeight="1">
       <c r="A1347">
         <v>162159</v>
       </c>
@@ -30111,7 +29498,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="1348" ht="18" customHeight="1" spans="1:3">
+    <row r="1348" spans="1:3" ht="18" customHeight="1">
       <c r="A1348">
         <v>162160</v>
       </c>
@@ -30122,7 +29509,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="1349" ht="18" customHeight="1" spans="1:3">
+    <row r="1349" spans="1:3" ht="18" customHeight="1">
       <c r="A1349">
         <v>162161</v>
       </c>
@@ -30133,7 +29520,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="1350" ht="18" customHeight="1" spans="1:3">
+    <row r="1350" spans="1:3" ht="18" customHeight="1">
       <c r="A1350">
         <v>162162</v>
       </c>
@@ -30144,7 +29531,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="1351" ht="18" customHeight="1" spans="1:3">
+    <row r="1351" spans="1:3" ht="18" customHeight="1">
       <c r="A1351">
         <v>162163</v>
       </c>
@@ -30155,7 +29542,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="1352" ht="18" customHeight="1" spans="1:3">
+    <row r="1352" spans="1:3" ht="18" customHeight="1">
       <c r="A1352">
         <v>162164</v>
       </c>
@@ -30166,7 +29553,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="1353" ht="18" customHeight="1" spans="1:3">
+    <row r="1353" spans="1:3" ht="18" customHeight="1">
       <c r="A1353">
         <v>162165</v>
       </c>
@@ -30177,7 +29564,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="1354" ht="18" customHeight="1" spans="1:3">
+    <row r="1354" spans="1:3" ht="18" customHeight="1">
       <c r="A1354">
         <v>162166</v>
       </c>
@@ -30188,7 +29575,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="1355" ht="18" customHeight="1" spans="1:3">
+    <row r="1355" spans="1:3" ht="18" customHeight="1">
       <c r="A1355">
         <v>162167</v>
       </c>
@@ -30199,7 +29586,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="1356" ht="18" customHeight="1" spans="1:3">
+    <row r="1356" spans="1:3" ht="18" customHeight="1">
       <c r="A1356">
         <v>162168</v>
       </c>
@@ -30210,7 +29597,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="1357" ht="18" customHeight="1" spans="1:3">
+    <row r="1357" spans="1:3" ht="18" customHeight="1">
       <c r="A1357">
         <v>162169</v>
       </c>
@@ -30221,7 +29608,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="1358" ht="18" customHeight="1" spans="1:3">
+    <row r="1358" spans="1:3" ht="18" customHeight="1">
       <c r="A1358">
         <v>162170</v>
       </c>
@@ -30232,7 +29619,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="1359" ht="18" customHeight="1" spans="1:3">
+    <row r="1359" spans="1:3" ht="18" customHeight="1">
       <c r="A1359">
         <v>162171</v>
       </c>
@@ -30243,7 +29630,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1360" ht="18" customHeight="1" spans="1:3">
+    <row r="1360" spans="1:3" ht="18" customHeight="1">
       <c r="A1360">
         <v>162172</v>
       </c>
@@ -30254,7 +29641,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="1361" ht="18" customHeight="1" spans="1:3">
+    <row r="1361" spans="1:3" ht="18" customHeight="1">
       <c r="A1361">
         <v>162173</v>
       </c>
@@ -30265,7 +29652,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="1362" ht="18" customHeight="1" spans="1:3">
+    <row r="1362" spans="1:3" ht="18" customHeight="1">
       <c r="A1362">
         <v>162174</v>
       </c>
@@ -30276,7 +29663,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="1363" ht="18" customHeight="1" spans="1:3">
+    <row r="1363" spans="1:3" ht="18" customHeight="1">
       <c r="A1363">
         <v>162175</v>
       </c>
@@ -30287,7 +29674,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="1364" ht="18" customHeight="1" spans="1:3">
+    <row r="1364" spans="1:3" ht="18" customHeight="1">
       <c r="A1364">
         <v>162176</v>
       </c>
@@ -30298,7 +29685,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="1365" ht="18" customHeight="1" spans="1:3">
+    <row r="1365" spans="1:3" ht="18" customHeight="1">
       <c r="A1365">
         <v>162177</v>
       </c>
@@ -30430,7 +29817,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="1377" ht="18" customHeight="1" spans="1:3">
+    <row r="1377" spans="1:3" ht="18" customHeight="1">
       <c r="A1377">
         <v>162189</v>
       </c>
@@ -30441,7 +29828,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="1378" ht="18" customHeight="1" spans="1:3">
+    <row r="1378" spans="1:3" ht="18" customHeight="1">
       <c r="A1378">
         <v>162190</v>
       </c>
@@ -30452,7 +29839,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="1379" ht="18" customHeight="1" spans="1:3">
+    <row r="1379" spans="1:3" ht="18" customHeight="1">
       <c r="A1379">
         <v>162191</v>
       </c>
@@ -30463,7 +29850,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="1380" ht="18" customHeight="1" spans="1:3">
+    <row r="1380" spans="1:3" ht="18" customHeight="1">
       <c r="A1380">
         <v>162192</v>
       </c>
@@ -30474,7 +29861,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="1381" ht="18" customHeight="1" spans="1:3">
+    <row r="1381" spans="1:3" ht="18" customHeight="1">
       <c r="A1381">
         <v>162193</v>
       </c>
@@ -30485,7 +29872,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="1382" ht="18" customHeight="1" spans="1:3">
+    <row r="1382" spans="1:3" ht="18" customHeight="1">
       <c r="A1382">
         <v>162194</v>
       </c>
@@ -30496,7 +29883,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="1383" ht="18" customHeight="1" spans="1:3">
+    <row r="1383" spans="1:3" ht="18" customHeight="1">
       <c r="A1383">
         <v>162195</v>
       </c>
@@ -30507,7 +29894,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="1384" ht="18" customHeight="1" spans="1:3">
+    <row r="1384" spans="1:3" ht="18" customHeight="1">
       <c r="A1384">
         <v>162196</v>
       </c>
@@ -30518,7 +29905,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="1385" ht="18" customHeight="1" spans="1:3">
+    <row r="1385" spans="1:3" ht="18" customHeight="1">
       <c r="A1385">
         <v>162197</v>
       </c>
@@ -30529,7 +29916,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="1386" ht="18" customHeight="1" spans="1:3">
+    <row r="1386" spans="1:3" ht="18" customHeight="1">
       <c r="A1386">
         <v>162198</v>
       </c>
@@ -30540,7 +29927,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="1387" ht="18" customHeight="1" spans="1:3">
+    <row r="1387" spans="1:3" ht="18" customHeight="1">
       <c r="A1387">
         <v>162199</v>
       </c>
@@ -30606,7 +29993,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="1393" spans="1:3">
+    <row r="1393" spans="1:4">
       <c r="A1393">
         <v>166002</v>
       </c>
@@ -30617,7 +30004,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="1394" spans="1:3">
+    <row r="1394" spans="1:4">
       <c r="A1394">
         <v>166003</v>
       </c>
@@ -30628,7 +30015,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="1395" spans="1:3">
+    <row r="1395" spans="1:4">
       <c r="A1395">
         <v>166004</v>
       </c>
@@ -31367,7 +30754,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1448" customHeight="1" spans="1:4">
+    <row r="1448" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1448">
         <v>166058</v>
       </c>
@@ -31381,7 +30768,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="1449" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1449" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1449">
         <v>166059</v>
       </c>
@@ -31395,7 +30782,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="1450" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1450" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1450">
         <v>166060</v>
       </c>
@@ -31409,7 +30796,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="1451" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1451" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1451">
         <v>166061</v>
       </c>
@@ -31423,7 +30810,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="1452" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1452" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1452">
         <v>166062</v>
       </c>
@@ -31437,7 +30824,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="1453" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1453" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1453">
         <v>166063</v>
       </c>
@@ -31451,7 +30838,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="1454" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1454" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1454">
         <v>166064</v>
       </c>
@@ -31465,7 +30852,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="1455" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1455" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1455">
         <v>166065</v>
       </c>
@@ -31479,7 +30866,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="1456" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1456" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1456">
         <v>166066</v>
       </c>
@@ -31493,7 +30880,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="1457" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1457" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1457">
         <v>166067</v>
       </c>
@@ -31507,7 +30894,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="1458" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1458" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1458">
         <v>166068</v>
       </c>
@@ -31521,7 +30908,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="1459" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1459" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1459">
         <v>166069</v>
       </c>
@@ -31535,7 +30922,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="1460" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1460" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1460">
         <v>166070</v>
       </c>
@@ -31549,7 +30936,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="1461" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1461" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1461">
         <v>166071</v>
       </c>
@@ -31563,7 +30950,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="1462" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1462" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1462">
         <v>166072</v>
       </c>
@@ -31577,7 +30964,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="1463" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1463" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1463">
         <v>166073</v>
       </c>
@@ -31591,7 +30978,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1464" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1464" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1464">
         <v>166074</v>
       </c>
@@ -31605,7 +30992,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1465" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1465" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1465">
         <v>166075</v>
       </c>
@@ -31619,7 +31006,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1466" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1466" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1466">
         <v>166076</v>
       </c>
@@ -31647,7 +31034,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="1468" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1468" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1468">
         <v>166078</v>
       </c>
@@ -31899,7 +31286,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="1486" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1486" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1486">
         <v>166096</v>
       </c>
@@ -31913,7 +31300,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="1487" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1487" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1487">
         <v>166097</v>
       </c>
@@ -31927,7 +31314,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="1488" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1488" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1488">
         <v>166098</v>
       </c>
@@ -31941,7 +31328,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="1489" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1489" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1489">
         <v>166099</v>
       </c>
@@ -31955,7 +31342,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1490" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1490" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1490">
         <v>166100</v>
       </c>
@@ -32025,7 +31412,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="1495" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1495" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1495">
         <v>166105</v>
       </c>
@@ -32039,7 +31426,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1496" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1496" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1496">
         <v>166106</v>
       </c>
@@ -32053,7 +31440,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="1497" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1497" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1497">
         <v>166107</v>
       </c>
@@ -32067,7 +31454,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="1498" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1498" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1498">
         <v>166108</v>
       </c>
@@ -32081,7 +31468,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="1499" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1499" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1499">
         <v>166109</v>
       </c>
@@ -32095,7 +31482,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="1500" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1500" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1500">
         <v>166110</v>
       </c>
@@ -32109,7 +31496,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="1501" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1501" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1501">
         <v>166111</v>
       </c>
@@ -32123,7 +31510,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="1502" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1502" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1502">
         <v>166112</v>
       </c>
@@ -32137,7 +31524,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="1503" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1503" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1503">
         <v>166113</v>
       </c>
@@ -32151,7 +31538,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="1504" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1504" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1504">
         <v>166114</v>
       </c>
@@ -32165,7 +31552,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="1505" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1505" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1505">
         <v>166115</v>
       </c>
@@ -32179,7 +31566,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1506" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1506" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1506">
         <v>166116</v>
       </c>
@@ -32193,7 +31580,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1507" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1507" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1507">
         <v>166117</v>
       </c>
@@ -32207,7 +31594,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="1508" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1508" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1508">
         <v>166118</v>
       </c>
@@ -32221,7 +31608,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="1509" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1509" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1509">
         <v>166119</v>
       </c>
@@ -32235,7 +31622,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="1510" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1510" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1510">
         <v>166120</v>
       </c>
@@ -32249,7 +31636,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1511" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1511" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1511">
         <v>166121</v>
       </c>
@@ -32263,7 +31650,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="1512" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1512" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1512">
         <v>166122</v>
       </c>
@@ -32277,7 +31664,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="1513" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1513" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1513">
         <v>166123</v>
       </c>
@@ -32291,7 +31678,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="1514" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1514" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1514">
         <v>166124</v>
       </c>
@@ -32305,7 +31692,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="1515" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1515" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1515">
         <v>166125</v>
       </c>
@@ -32319,7 +31706,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="1516" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1516" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1516">
         <v>166126</v>
       </c>
@@ -32333,7 +31720,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="1517" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1517" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1517">
         <v>166127</v>
       </c>
@@ -32347,7 +31734,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="1518" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1518" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1518">
         <v>166128</v>
       </c>
@@ -32361,7 +31748,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="1519" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1519" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1519">
         <v>166129</v>
       </c>
@@ -32375,7 +31762,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="1520" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1520" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1520">
         <v>166130</v>
       </c>
@@ -32389,7 +31776,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="1521" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1521" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1521">
         <v>166131</v>
       </c>
@@ -32403,7 +31790,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="1522" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1522" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1522">
         <v>166132</v>
       </c>
@@ -32417,7 +31804,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="1523" ht="12.75" customHeight="1" spans="1:4">
+    <row r="1523" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1523">
         <v>166133</v>
       </c>
@@ -32445,7 +31832,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="1525" ht="18" customHeight="1" spans="1:4">
+    <row r="1525" spans="1:4" ht="18" customHeight="1">
       <c r="A1525">
         <v>166135</v>
       </c>
@@ -32459,7 +31846,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="1526" ht="18" customHeight="1" spans="1:4">
+    <row r="1526" spans="1:4" ht="18" customHeight="1">
       <c r="A1526">
         <v>166136</v>
       </c>
@@ -32473,7 +31860,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="1527" ht="18" customHeight="1" spans="1:4">
+    <row r="1527" spans="1:4" ht="18" customHeight="1">
       <c r="A1527">
         <v>166137</v>
       </c>
@@ -32557,7 +31944,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="1533" spans="1:3">
+    <row r="1533" spans="1:4">
       <c r="A1533">
         <v>168002</v>
       </c>
@@ -32610,7 +31997,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="1537" spans="1:3">
+    <row r="1537" spans="1:4">
       <c r="A1537">
         <v>168006</v>
       </c>
@@ -32621,7 +32008,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="1538" spans="1:3">
+    <row r="1538" spans="1:4">
       <c r="A1538">
         <v>168007</v>
       </c>
@@ -32632,7 +32019,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1539" spans="1:3">
+    <row r="1539" spans="1:4">
       <c r="A1539">
         <v>168008</v>
       </c>
@@ -32741,7 +32128,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="1547" spans="1:3">
+    <row r="1547" spans="1:4">
       <c r="A1547">
         <v>168016</v>
       </c>
@@ -32752,7 +32139,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="1548" spans="1:3">
+    <row r="1548" spans="1:4">
       <c r="A1548">
         <v>168017</v>
       </c>
@@ -32959,7 +32346,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="1563" customHeight="1" spans="1:4">
+    <row r="1563" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1563">
         <v>170012</v>
       </c>
@@ -32973,7 +32360,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="1564" customHeight="1" spans="1:4">
+    <row r="1564" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1564">
         <v>170013</v>
       </c>
@@ -32987,7 +32374,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="1565" customHeight="1" spans="1:4">
+    <row r="1565" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1565">
         <v>170014</v>
       </c>
@@ -33001,7 +32388,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="1566" customHeight="1" spans="1:4">
+    <row r="1566" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1566">
         <v>170015</v>
       </c>
@@ -33015,7 +32402,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="1567" customHeight="1" spans="1:4">
+    <row r="1567" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1567">
         <v>170016</v>
       </c>
@@ -33029,7 +32416,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="1568" customHeight="1" spans="1:4">
+    <row r="1568" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1568">
         <v>170017</v>
       </c>
@@ -33043,7 +32430,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="1569" customHeight="1" spans="1:4">
+    <row r="1569" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1569">
         <v>170018</v>
       </c>
@@ -33057,7 +32444,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="1570" customHeight="1" spans="1:4">
+    <row r="1570" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1570">
         <v>170019</v>
       </c>
@@ -33071,7 +32458,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="1571" customHeight="1" spans="1:4">
+    <row r="1571" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1571">
         <v>170020</v>
       </c>
@@ -33085,7 +32472,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1572" customHeight="1" spans="1:4">
+    <row r="1572" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1572">
         <v>170021</v>
       </c>
@@ -33099,7 +32486,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="1573" customHeight="1" spans="1:4">
+    <row r="1573" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1573">
         <v>170022</v>
       </c>
@@ -33113,7 +32500,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="1574" customHeight="1" spans="1:4">
+    <row r="1574" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1574">
         <v>170023</v>
       </c>
@@ -33127,7 +32514,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="1575" customHeight="1" spans="1:4">
+    <row r="1575" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1575">
         <v>170024</v>
       </c>
@@ -33141,7 +32528,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="1576" customHeight="1" spans="1:4">
+    <row r="1576" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1576">
         <v>170025</v>
       </c>
@@ -33155,7 +32542,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="1577" customHeight="1" spans="1:4">
+    <row r="1577" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1577">
         <v>170026</v>
       </c>
@@ -33169,7 +32556,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="1578" customHeight="1" spans="1:4">
+    <row r="1578" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1578">
         <v>170027</v>
       </c>
@@ -33337,7 +32724,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="1590" spans="1:3">
+    <row r="1590" spans="1:4">
       <c r="A1590">
         <v>170039</v>
       </c>
@@ -34076,7 +33463,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="1643" spans="1:3">
+    <row r="1643" spans="1:4">
       <c r="A1643">
         <v>172011</v>
       </c>
@@ -34087,7 +33474,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="1644" spans="1:3">
+    <row r="1644" spans="1:4">
       <c r="A1644">
         <v>172012</v>
       </c>
@@ -34098,7 +33485,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="1645" spans="1:3">
+    <row r="1645" spans="1:4">
       <c r="A1645">
         <v>172013</v>
       </c>
@@ -34109,7 +33496,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="1646" spans="1:3">
+    <row r="1646" spans="1:4">
       <c r="A1646">
         <v>172014</v>
       </c>
@@ -34120,7 +33507,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="1647" spans="1:3">
+    <row r="1647" spans="1:4">
       <c r="A1647">
         <v>172015</v>
       </c>
@@ -34131,7 +33518,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="1648" spans="1:3">
+    <row r="1648" spans="1:4">
       <c r="A1648">
         <v>172016</v>
       </c>
@@ -35192,7 +34579,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="1724" s="2" customFormat="1" spans="1:4">
+    <row r="1724" spans="1:4" s="2" customFormat="1">
       <c r="A1724" s="2">
         <v>174025</v>
       </c>
@@ -35206,7 +34593,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1725" s="2" customFormat="1" spans="1:4">
+    <row r="1725" spans="1:4" s="2" customFormat="1">
       <c r="A1725" s="2">
         <v>174026</v>
       </c>
@@ -35220,7 +34607,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1726" s="2" customFormat="1" spans="1:4">
+    <row r="1726" spans="1:4" s="2" customFormat="1">
       <c r="A1726" s="2">
         <v>174027</v>
       </c>
@@ -35234,7 +34621,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1727" s="2" customFormat="1" spans="1:4">
+    <row r="1727" spans="1:4" s="2" customFormat="1">
       <c r="A1727" s="2">
         <v>174028</v>
       </c>
@@ -35248,7 +34635,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1728" s="2" customFormat="1" spans="1:4">
+    <row r="1728" spans="1:4" s="2" customFormat="1">
       <c r="A1728" s="2">
         <v>174029</v>
       </c>
@@ -35262,7 +34649,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1729" s="2" customFormat="1" spans="1:4">
+    <row r="1729" spans="1:4" s="2" customFormat="1">
       <c r="A1729" s="2">
         <v>174030</v>
       </c>
@@ -35276,7 +34663,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1730" s="2" customFormat="1" spans="1:4">
+    <row r="1730" spans="1:4" s="2" customFormat="1">
       <c r="A1730" s="2">
         <v>174031</v>
       </c>
@@ -35290,7 +34677,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1731" s="2" customFormat="1" spans="1:4">
+    <row r="1731" spans="1:4" s="2" customFormat="1">
       <c r="A1731" s="2">
         <v>174032</v>
       </c>
@@ -35304,7 +34691,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1732" s="2" customFormat="1" spans="1:4">
+    <row r="1732" spans="1:4" s="2" customFormat="1">
       <c r="A1732" s="2">
         <v>174033</v>
       </c>
@@ -35318,7 +34705,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1733" s="2" customFormat="1" spans="1:4">
+    <row r="1733" spans="1:4" s="2" customFormat="1">
       <c r="A1733" s="2">
         <v>174034</v>
       </c>
@@ -35332,7 +34719,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1734" s="2" customFormat="1" spans="1:4">
+    <row r="1734" spans="1:4" s="2" customFormat="1">
       <c r="A1734" s="2">
         <v>174035</v>
       </c>
@@ -35346,7 +34733,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1735" s="2" customFormat="1" spans="1:4">
+    <row r="1735" spans="1:4" s="2" customFormat="1">
       <c r="A1735" s="2">
         <v>174036</v>
       </c>
@@ -35360,7 +34747,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1736" s="2" customFormat="1" spans="1:4">
+    <row r="1736" spans="1:4" s="2" customFormat="1">
       <c r="A1736" s="2">
         <v>174037</v>
       </c>
@@ -35374,7 +34761,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1737" s="2" customFormat="1" spans="1:4">
+    <row r="1737" spans="1:4" s="2" customFormat="1">
       <c r="A1737" s="2">
         <v>174038</v>
       </c>
@@ -35388,7 +34775,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1738" s="2" customFormat="1" spans="1:4">
+    <row r="1738" spans="1:4" s="2" customFormat="1">
       <c r="A1738" s="2">
         <v>174039</v>
       </c>
@@ -35402,7 +34789,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1739" s="2" customFormat="1" spans="1:4">
+    <row r="1739" spans="1:4" s="2" customFormat="1">
       <c r="A1739" s="2">
         <v>174040</v>
       </c>
@@ -35416,7 +34803,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1740" s="2" customFormat="1" spans="1:4">
+    <row r="1740" spans="1:4" s="2" customFormat="1">
       <c r="A1740" s="2">
         <v>174041</v>
       </c>
@@ -35430,7 +34817,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1741" s="2" customFormat="1" spans="1:4">
+    <row r="1741" spans="1:4" s="2" customFormat="1">
       <c r="A1741" s="2">
         <v>174042</v>
       </c>
@@ -35444,7 +34831,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1742" s="2" customFormat="1" spans="1:4">
+    <row r="1742" spans="1:4" s="2" customFormat="1">
       <c r="A1742" s="2">
         <v>174043</v>
       </c>
@@ -35458,7 +34845,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1743" s="2" customFormat="1" spans="1:4">
+    <row r="1743" spans="1:4" s="2" customFormat="1">
       <c r="A1743" s="2">
         <v>174044</v>
       </c>
@@ -35472,7 +34859,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1744" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="1744" spans="1:4" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1744" s="2">
         <v>174045</v>
       </c>
@@ -35486,7 +34873,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1745" s="2" customFormat="1" spans="1:4">
+    <row r="1745" spans="1:4" s="2" customFormat="1">
       <c r="A1745" s="2">
         <v>174046</v>
       </c>
@@ -35500,7 +34887,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1746" s="2" customFormat="1" spans="1:4">
+    <row r="1746" spans="1:4" s="2" customFormat="1">
       <c r="A1746" s="2">
         <v>174047</v>
       </c>
@@ -35514,7 +34901,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1747" s="2" customFormat="1" spans="1:4">
+    <row r="1747" spans="1:4" s="2" customFormat="1">
       <c r="A1747" s="2">
         <v>174048</v>
       </c>
@@ -35528,7 +34915,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1748" s="2" customFormat="1" spans="1:4">
+    <row r="1748" spans="1:4" s="2" customFormat="1">
       <c r="A1748" s="2">
         <v>174049</v>
       </c>
@@ -35542,7 +34929,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1749" s="2" customFormat="1" spans="1:4">
+    <row r="1749" spans="1:4" s="2" customFormat="1">
       <c r="A1749" s="2">
         <v>174050</v>
       </c>
@@ -35556,7 +34943,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1750" s="2" customFormat="1" spans="1:4">
+    <row r="1750" spans="1:4" s="2" customFormat="1">
       <c r="A1750" s="2">
         <v>174051</v>
       </c>
@@ -35570,7 +34957,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1751" s="2" customFormat="1" spans="1:4">
+    <row r="1751" spans="1:4" s="2" customFormat="1">
       <c r="A1751" s="2">
         <v>174052</v>
       </c>
@@ -35584,7 +34971,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1752" s="2" customFormat="1" spans="1:4">
+    <row r="1752" spans="1:4" s="2" customFormat="1">
       <c r="A1752" s="2">
         <v>174053</v>
       </c>
@@ -35598,7 +34985,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1753" s="2" customFormat="1" spans="1:4">
+    <row r="1753" spans="1:4" s="2" customFormat="1">
       <c r="A1753" s="2">
         <v>174054</v>
       </c>
@@ -35612,7 +34999,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1754" s="2" customFormat="1" spans="1:4">
+    <row r="1754" spans="1:4" s="2" customFormat="1">
       <c r="A1754" s="2">
         <v>174055</v>
       </c>
@@ -35626,7 +35013,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1755" s="2" customFormat="1" spans="1:4">
+    <row r="1755" spans="1:4" s="2" customFormat="1">
       <c r="A1755" s="2">
         <v>174056</v>
       </c>
@@ -35640,7 +35027,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1756" s="2" customFormat="1" spans="1:4">
+    <row r="1756" spans="1:4" s="2" customFormat="1">
       <c r="A1756" s="2">
         <v>174057</v>
       </c>
@@ -35654,7 +35041,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1757" s="2" customFormat="1" spans="1:4">
+    <row r="1757" spans="1:4" s="2" customFormat="1">
       <c r="A1757" s="2">
         <v>174058</v>
       </c>
@@ -35668,7 +35055,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1758" s="2" customFormat="1" spans="1:4">
+    <row r="1758" spans="1:4" s="2" customFormat="1">
       <c r="A1758" s="2">
         <v>174059</v>
       </c>
@@ -35682,7 +35069,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1759" s="2" customFormat="1" spans="1:4">
+    <row r="1759" spans="1:4" s="2" customFormat="1">
       <c r="A1759" s="2">
         <v>174060</v>
       </c>
@@ -35696,7 +35083,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1760" s="2" customFormat="1" spans="1:4">
+    <row r="1760" spans="1:4" s="2" customFormat="1">
       <c r="A1760" s="2">
         <v>174061</v>
       </c>
@@ -35710,7 +35097,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1761" s="2" customFormat="1" spans="1:4">
+    <row r="1761" spans="1:4" s="2" customFormat="1">
       <c r="A1761" s="2">
         <v>174062</v>
       </c>
@@ -35724,7 +35111,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1762" s="2" customFormat="1" spans="1:4">
+    <row r="1762" spans="1:4" s="2" customFormat="1">
       <c r="A1762" s="2">
         <v>174063</v>
       </c>
@@ -35738,7 +35125,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1763" s="2" customFormat="1" spans="1:4">
+    <row r="1763" spans="1:4" s="2" customFormat="1">
       <c r="A1763" s="2">
         <v>174064</v>
       </c>
@@ -35752,7 +35139,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1764" s="2" customFormat="1" spans="1:4">
+    <row r="1764" spans="1:4" s="2" customFormat="1">
       <c r="A1764" s="2">
         <v>174065</v>
       </c>
@@ -35766,7 +35153,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1765" s="2" customFormat="1" spans="1:4">
+    <row r="1765" spans="1:4" s="2" customFormat="1">
       <c r="A1765" s="2">
         <v>174066</v>
       </c>
@@ -35780,7 +35167,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1766" s="2" customFormat="1" spans="1:4">
+    <row r="1766" spans="1:4" s="2" customFormat="1">
       <c r="A1766" s="2">
         <v>174067</v>
       </c>
@@ -35794,7 +35181,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1767" s="2" customFormat="1" spans="1:4">
+    <row r="1767" spans="1:4" s="2" customFormat="1">
       <c r="A1767" s="2">
         <v>174068</v>
       </c>
@@ -35808,7 +35195,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1768" s="2" customFormat="1" spans="1:4">
+    <row r="1768" spans="1:4" s="2" customFormat="1">
       <c r="A1768" s="2">
         <v>174069</v>
       </c>
@@ -35822,7 +35209,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1769" s="2" customFormat="1" spans="1:4">
+    <row r="1769" spans="1:4" s="2" customFormat="1">
       <c r="A1769" s="2">
         <v>174070</v>
       </c>
@@ -35836,7 +35223,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1770" s="2" customFormat="1" spans="1:4">
+    <row r="1770" spans="1:4" s="2" customFormat="1">
       <c r="A1770" s="2">
         <v>174071</v>
       </c>
@@ -35850,7 +35237,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1771" s="2" customFormat="1" spans="1:4">
+    <row r="1771" spans="1:4" s="2" customFormat="1">
       <c r="A1771" s="2">
         <v>174072</v>
       </c>
@@ -35864,7 +35251,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1772" s="2" customFormat="1" spans="1:4">
+    <row r="1772" spans="1:4" s="2" customFormat="1">
       <c r="A1772" s="2">
         <v>174073</v>
       </c>
@@ -35878,7 +35265,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1773" s="2" customFormat="1" spans="1:4">
+    <row r="1773" spans="1:4" s="2" customFormat="1">
       <c r="A1773" s="2">
         <v>174074</v>
       </c>
@@ -35892,7 +35279,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1774" s="2" customFormat="1" spans="1:4">
+    <row r="1774" spans="1:4" s="2" customFormat="1">
       <c r="A1774" s="2">
         <v>174075</v>
       </c>
@@ -35906,7 +35293,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1775" s="2" customFormat="1" spans="1:4">
+    <row r="1775" spans="1:4" s="2" customFormat="1">
       <c r="A1775" s="2">
         <v>174076</v>
       </c>
@@ -35920,7 +35307,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1776" s="2" customFormat="1" spans="1:4">
+    <row r="1776" spans="1:4" s="2" customFormat="1">
       <c r="A1776" s="2">
         <v>174077</v>
       </c>
@@ -35934,7 +35321,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1777" s="2" customFormat="1" spans="1:4">
+    <row r="1777" spans="1:4" s="2" customFormat="1">
       <c r="A1777" s="2">
         <v>174078</v>
       </c>
@@ -35948,7 +35335,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1778" s="2" customFormat="1" spans="1:4">
+    <row r="1778" spans="1:4" s="2" customFormat="1">
       <c r="A1778" s="2">
         <v>174079</v>
       </c>
@@ -35962,7 +35349,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1779" s="2" customFormat="1" spans="1:4">
+    <row r="1779" spans="1:4" s="2" customFormat="1">
       <c r="A1779" s="2">
         <v>174080</v>
       </c>
@@ -35976,7 +35363,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1780" s="2" customFormat="1" spans="1:4">
+    <row r="1780" spans="1:4" s="2" customFormat="1">
       <c r="A1780" s="2">
         <v>174081</v>
       </c>
@@ -35990,7 +35377,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1781" s="2" customFormat="1" spans="1:4">
+    <row r="1781" spans="1:4" s="2" customFormat="1">
       <c r="A1781" s="2">
         <v>174082</v>
       </c>
@@ -36578,7 +35965,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="1823" spans="1:3">
+    <row r="1823" spans="1:4">
       <c r="A1823">
         <v>180028</v>
       </c>
@@ -36617,7 +36004,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="1826" spans="1:3">
+    <row r="1826" spans="1:4">
       <c r="A1826">
         <v>180031</v>
       </c>
@@ -36628,7 +36015,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="1827" spans="1:3">
+    <row r="1827" spans="1:4">
       <c r="A1827">
         <v>180032</v>
       </c>
@@ -36639,7 +36026,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="1828" spans="1:3">
+    <row r="1828" spans="1:4">
       <c r="A1828">
         <v>180033</v>
       </c>
@@ -36664,7 +36051,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="1830" spans="1:3">
+    <row r="1830" spans="1:4">
       <c r="A1830">
         <v>180041</v>
       </c>
@@ -36675,7 +36062,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="1831" spans="1:3">
+    <row r="1831" spans="1:4">
       <c r="A1831">
         <v>180042</v>
       </c>
@@ -36686,7 +36073,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="1832" spans="1:3">
+    <row r="1832" spans="1:4">
       <c r="A1832">
         <v>180043</v>
       </c>
@@ -36697,7 +36084,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="1833" spans="1:3">
+    <row r="1833" spans="1:4">
       <c r="A1833">
         <v>180044</v>
       </c>
@@ -36708,7 +36095,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1834" spans="1:3">
+    <row r="1834" spans="1:4">
       <c r="A1834">
         <v>180045</v>
       </c>
@@ -37447,7 +36834,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="1887" spans="1:3">
+    <row r="1887" spans="1:4">
       <c r="A1887">
         <v>190051</v>
       </c>
@@ -37458,7 +36845,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="1888" spans="1:3">
+    <row r="1888" spans="1:4">
       <c r="A1888">
         <v>190052</v>
       </c>
@@ -37945,7 +37332,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="1923" spans="1:3">
+    <row r="1923" spans="1:4">
       <c r="A1923">
         <v>300000</v>
       </c>
@@ -38012,7 +37399,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="1928" spans="1:3">
+    <row r="1928" spans="1:4">
       <c r="A1928">
         <v>300005</v>
       </c>
@@ -38023,7 +37410,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="1929" spans="1:3">
+    <row r="1929" spans="1:4">
       <c r="A1929">
         <v>300006</v>
       </c>
@@ -38034,7 +37421,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="1930" spans="1:3">
+    <row r="1930" spans="1:4">
       <c r="A1930">
         <v>300007</v>
       </c>
@@ -38325,7 +37712,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="1951" ht="42.75" customHeight="1" spans="1:4">
+    <row r="1951" spans="1:4" ht="42.75" customHeight="1">
       <c r="A1951">
         <v>300028</v>
       </c>
@@ -38339,7 +37726,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="1952" spans="1:3">
+    <row r="1952" spans="1:4">
       <c r="A1952">
         <v>399999</v>
       </c>
@@ -39246,7 +38633,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="2017" ht="15" customHeight="1" spans="1:4">
+    <row r="2017" spans="1:4" ht="15" customHeight="1">
       <c r="A2017">
         <v>191009</v>
       </c>
@@ -39778,7 +39165,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="2055" spans="1:3">
+    <row r="2055" spans="1:4">
       <c r="A2055">
         <v>191047</v>
       </c>
@@ -39789,7 +39176,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="2056" spans="1:3">
+    <row r="2056" spans="1:4">
       <c r="A2056">
         <v>191048</v>
       </c>
@@ -39800,7 +39187,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="2057" spans="1:3">
+    <row r="2057" spans="1:4">
       <c r="A2057">
         <v>191049</v>
       </c>
@@ -39811,7 +39198,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="2058" spans="1:3">
+    <row r="2058" spans="1:4">
       <c r="A2058">
         <v>191050</v>
       </c>
@@ -39822,7 +39209,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="2059" spans="1:3">
+    <row r="2059" spans="1:4">
       <c r="A2059">
         <v>191051</v>
       </c>
@@ -39833,7 +39220,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="2060" spans="1:3">
+    <row r="2060" spans="1:4">
       <c r="A2060">
         <v>191052</v>
       </c>
@@ -40152,7 +39539,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="2084" ht="15" customHeight="1" spans="1:4">
+    <row r="2084" spans="1:4" ht="15" customHeight="1">
       <c r="A2084">
         <v>194004</v>
       </c>
@@ -40596,7 +39983,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="2116" ht="15" customHeight="1" spans="1:4">
+    <row r="2116" spans="1:4" ht="15" customHeight="1">
       <c r="A2116">
         <v>194036</v>
       </c>
@@ -40674,7 +40061,7 @@
         <v>2382</v>
       </c>
       <c r="C2121" t="s">
-        <v>3173</v>
+        <v>3199</v>
       </c>
       <c r="D2121" t="s">
         <v>3172</v>
@@ -40685,10 +40072,10 @@
         <v>191153</v>
       </c>
       <c r="C2122" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D2122" t="s">
         <v>3174</v>
-      </c>
-      <c r="D2122" t="s">
-        <v>3175</v>
       </c>
     </row>
     <row r="2123" spans="1:4">
@@ -40696,10 +40083,10 @@
         <v>191154</v>
       </c>
       <c r="C2123" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D2123" t="s">
         <v>3176</v>
-      </c>
-      <c r="D2123" t="s">
-        <v>3177</v>
       </c>
     </row>
     <row r="2124" spans="1:4">
@@ -40707,128 +40094,133 @@
         <v>191159</v>
       </c>
       <c r="C2124" t="s">
-        <v>3178</v>
+        <v>3197</v>
       </c>
       <c r="D2124" t="s">
         <v>3153</v>
       </c>
     </row>
+    <row r="2125" spans="1:4">
+      <c r="A2125">
+        <v>191160</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>3198</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2124">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:D2124" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD21"/>
+      <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="80.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>3194</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>3195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>3196</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20">
         <v>166071</v>
       </c>
@@ -40836,13 +40228,13 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="D20" t="s">
         <v>2349</v>
       </c>
     </row>
-    <row r="21" ht="45" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="45" customHeight="1">
       <c r="A21">
         <v>166072</v>
       </c>
@@ -40850,15 +40242,15 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="D21" t="s">
         <v>2351</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
+++ b/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\客户端提示信息表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533B1D3C-CB51-4196-81D2-76D1D87501CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77A61D9-B3D4-4240-A3BD-CEC2E1A78F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$2124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$2127</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4752" uniqueCount="3200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="3202">
   <si>
     <t>ID</t>
   </si>
@@ -12147,6 +12147,14 @@
   </si>
   <si>
     <t>&lt;T t="&lt;奖励公告&gt;恭喜" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ffff0000"&gt;&lt;/T&gt;&lt;T t="击杀魔化龙王获得" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter3$"c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter4$"c="ffff8c00"&gt;&lt;/T&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;T t='1、套装点化可以增加属性值' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='2、套装点化可以增加技能或者技能目标' c='ff261407' /&gt;&lt;B/&gt;&lt;T t='3、请把需要点化的装备放在背包' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='4、恭喜发财制作独家版本等你来战' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='5、恭喜发财祝你游戏开心' c='ff261407'/&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;T t='1、装备重铸可以增加特技和特效' c='ff261407'/&gt;&lt;B/&gt;&lt;B/&gt;&lt;T t='2、请把需要点化的装备放在背包' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='4、恭喜发财制作独家版本等你来战' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='5、恭喜发财祝你游戏开心' c='ff261407'/&gt;</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -12704,10 +12712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2125"/>
+  <dimension ref="A1:D2127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2062" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A2126" sqref="A2126"/>
@@ -40108,8 +40116,36 @@
         <v>3198</v>
       </c>
     </row>
+    <row r="2126" spans="1:4">
+      <c r="A2126">
+        <v>191161</v>
+      </c>
+      <c r="B2126">
+        <v>1</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:4">
+      <c r="A2127">
+        <v>191162</v>
+      </c>
+      <c r="B2127">
+        <v>1</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>2737</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2124" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D2127" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
+++ b/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\客户端提示信息表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77A61D9-B3D4-4240-A3BD-CEC2E1A78F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FDC4E2-BFD9-4819-B013-23C10A0E0E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12718,7 +12718,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2126" sqref="A2126"/>
+      <selection pane="bottomRight" activeCell="C2127" sqref="C2127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
+++ b/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
@@ -1,43 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\客户端提示信息表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FDC4E2-BFD9-4819-B013-23C10A0E0E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$2127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$2125</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>admin:
+          <t xml:space="preserve">admin:
 MESSAGE_TIP = 1, // 透明框提示
   NPC_MSG = 2, // npc对话框提示
   CHANNEL_MESSAGE = 3, // 消息频道提示
@@ -64,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="3202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202">
   <si>
     <t>ID</t>
   </si>
@@ -3243,7 +3238,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>10</t>
     </r>
@@ -3278,7 +3273,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -3294,7 +3289,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter2$</t>
     </r>
@@ -3600,7 +3595,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>50</t>
     </r>
@@ -3681,7 +3676,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -3697,7 +3692,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -3714,7 +3709,7 @@
         <sz val="10.5"/>
         <color indexed="17"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="$parameter2$"&gt;&lt;/T&gt;</t>
     </r>
@@ -3730,7 +3725,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -3746,7 +3741,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -3763,7 +3758,7 @@
         <sz val="10.5"/>
         <color indexed="17"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="$parameter2$"&gt;&lt;/T&gt;</t>
     </r>
@@ -3776,7 +3771,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -3792,7 +3787,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -3808,7 +3803,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -3817,7 +3812,7 @@
         <sz val="10.5"/>
         <color indexed="17"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$" c="$parameter2$"&gt;&lt;/T&gt;</t>
     </r>
@@ -3827,7 +3822,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -3843,7 +3838,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;B/&gt;&lt;T t="</t>
     </r>
@@ -3859,7 +3854,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -3875,7 +3870,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;B/&gt;&lt;T t="</t>
     </r>
@@ -3891,7 +3886,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter2$</t>
     </r>
@@ -3907,7 +3902,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;B/&gt;&lt;T t="</t>
     </r>
@@ -3923,7 +3918,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter3$</t>
     </r>
@@ -3939,7 +3934,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;B/&gt;&lt;T t="</t>
     </r>
@@ -3955,7 +3950,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter4$</t>
     </r>
@@ -3971,7 +3966,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;B/&gt;&lt;T t="</t>
     </r>
@@ -3987,7 +3982,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter5$</t>
     </r>
@@ -4003,7 +3998,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;</t>
     </r>
@@ -4033,7 +4028,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -4063,7 +4058,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -4102,7 +4097,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -4128,7 +4123,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$Parameter1$</t>
     </r>
@@ -4144,7 +4139,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -4160,7 +4155,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$Parameter2$$Parameter3$</t>
     </r>
@@ -4307,7 +4302,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$Parameter1$</t>
     </r>
@@ -4323,7 +4318,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -4339,7 +4334,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$Parameter2$$Parameter3$</t>
     </r>
@@ -4357,7 +4352,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$Parameter1$,</t>
     </r>
@@ -4373,7 +4368,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$Parameter2$$Parameter3$</t>
     </r>
@@ -4914,7 +4909,7 @@
         <sz val="10"/>
         <color indexed="60"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -4989,7 +4984,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -5039,7 +5034,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -5114,7 +5109,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -5130,7 +5125,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="$ItemName$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="$ItemNumber$$Unit$</t>
     </r>
@@ -5146,7 +5141,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="$Money$" c="ff00ff00"&gt;&lt;/T&gt;&lt;I s='linshi' i='yb'/&gt;</t>
     </r>
@@ -5159,7 +5154,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -5175,7 +5170,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="$ItemName$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="$ItemNumber$$Unit$</t>
     </r>
@@ -5191,7 +5186,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>"&gt;&lt;/T&gt;&lt;T t="$Money$" c="ff00ff00"&gt;&lt;/T&gt;&lt;I s='linshi' i='jb'/&gt;</t>
     </r>
@@ -5212,7 +5207,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -5233,7 +5228,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -5249,7 +5244,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;I s='linshi' i='yb'/&gt;</t>
     </r>
@@ -5295,7 +5290,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -5481,7 +5476,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -5497,7 +5492,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -5513,7 +5508,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -5666,7 +5661,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -5921,7 +5916,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -5929,7 +5924,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,13</t>
     </r>
@@ -5942,7 +5937,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -5950,7 +5945,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,13</t>
     </r>
@@ -6028,7 +6023,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$,</t>
     </r>
@@ -6044,7 +6039,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter2$,</t>
     </r>
@@ -6060,7 +6055,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>?</t>
     </r>
@@ -6108,7 +6103,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$$parameter2$</t>
     </r>
@@ -6124,7 +6119,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter3$</t>
     </r>
@@ -6140,7 +6135,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter4$</t>
     </r>
@@ -6186,7 +6181,7 @@
         <sz val="10"/>
         <color indexed="60"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>IOS</t>
     </r>
@@ -6279,7 +6274,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6397,7 +6392,7 @@
         <sz val="10"/>
         <color indexed="60"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -6422,7 +6417,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -6482,7 +6477,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1,3</t>
     </r>
@@ -6490,7 +6485,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,15</t>
     </r>
@@ -6520,7 +6515,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -6548,7 +6543,7 @@
         <sz val="10"/>
         <color indexed="60"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -6617,7 +6612,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -6664,7 +6659,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -6856,7 +6851,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>?</t>
     </r>
@@ -7122,7 +7117,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -7130,7 +7125,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,15</t>
     </r>
@@ -7169,7 +7164,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -7185,7 +7180,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$Parameter2$</t>
     </r>
@@ -7223,7 +7218,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$($parameter2$</t>
     </r>
@@ -7239,7 +7234,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -7384,7 +7379,7 @@
         <sz val="10"/>
         <color indexed="60"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>NPC</t>
     </r>
@@ -7604,7 +7599,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -7620,7 +7615,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="FF1d67fd"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -7636,7 +7631,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3V3</t>
     </r>
@@ -7652,7 +7647,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -7668,7 +7663,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -7735,7 +7730,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4,</t>
     </r>
@@ -7914,7 +7909,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,-</t>
     </r>
@@ -8302,7 +8297,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -8320,7 +8315,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -8338,7 +8333,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>?</t>
     </r>
@@ -8358,7 +8353,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -8376,7 +8371,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -8394,7 +8389,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>?</t>
     </r>
@@ -8710,7 +8705,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -8726,7 +8721,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -8742,7 +8737,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -8852,7 +8847,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>$parameter1$</t>
     </r>
@@ -8868,7 +8863,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -8884,7 +8879,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -9193,7 +9188,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -9209,7 +9204,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -9225,7 +9220,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -9238,7 +9233,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -9254,7 +9249,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -9270,7 +9265,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -9283,7 +9278,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -9299,7 +9294,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -9315,7 +9310,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -9328,7 +9323,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -9344,7 +9339,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -9360,7 +9355,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -9462,7 +9457,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>10</t>
     </r>
@@ -9594,7 +9589,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -9602,7 +9597,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,15</t>
     </r>
@@ -10185,7 +10180,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="$parameter1$" c="ff00ff00"/&gt;&lt;T t="</t>
     </r>
@@ -10201,7 +10196,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"/&gt;&lt;T t="$parameter2$" c="ff00ff00"/&gt;&lt;T t="/" c="ff261407"/&gt;&lt;T t="$parameter3$" c="ff00ff00"/&gt;&lt;T t="</t>
     </r>
@@ -10217,7 +10212,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"/&gt;</t>
     </r>
@@ -10683,7 +10678,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -10699,7 +10694,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -11206,7 +11201,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="$parameter1$" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11224,7 +11219,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11242,7 +11237,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>[</t>
     </r>
@@ -11260,7 +11255,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>]" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11278,7 +11273,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter3$" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter4$" c="$parameter5$"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11296,7 +11291,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -11317,7 +11312,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -11335,7 +11330,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11353,7 +11348,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11371,7 +11366,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter3$" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter4$" c="$parameter5$"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -11389,7 +11384,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
@@ -11931,6 +11926,9 @@
     <t>魔化黑龙</t>
   </si>
   <si>
+    <t>&lt;T t="&lt;奖励公告&gt;恭喜" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ffff0000"&gt;&lt;/T&gt;&lt;T t="击杀魔化龙王获得" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter3$"c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter4$"c="ffff8c00"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
     <t>&lt;T t='装备洗练成功' c='ff00ff00'/&gt;</t>
   </si>
   <si>
@@ -11941,6 +11939,18 @@
   </si>
   <si>
     <t>套装点化</t>
+  </si>
+  <si>
+    <t>&lt;T t='装备重铸成功' c='ff00ff00'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;T t='此件装备无法重铸' c='ff00ff00'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;T t='1、套装点化可以增加属性值' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='2、套装点化可以增加技能或者技能目标' c='ff261407' /&gt;&lt;B/&gt;&lt;T t='3、请把需要点化的装备放在背包' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='4、恭喜发财制作独家版本等你来战' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='5、恭喜发财祝你游戏开心' c='ff261407'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;T t='1、装备重铸消耗金币和重铸石' c='ffff0000'/&gt;&lt;B/&gt;&lt;B/&gt;&lt;T t='2、请确定重铸前装备卸下装备上面的宝石' c='ffffff00'/&gt;&lt;B/&gt;&lt;T t='3、点化的套装重铸后会消失' c='ff00ff00'/&gt;&lt;B/&gt;&lt;T t='4、每个等级重铸的消耗不同' c='ff261407'/&gt;</t>
   </si>
   <si>
     <t>admin:</t>
@@ -12001,7 +12011,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>&lt;T t="</t>
     </r>
@@ -12017,7 +12027,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -12033,7 +12043,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -12049,7 +12059,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>." c="ff261407"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -12065,7 +12075,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter3$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -12081,7 +12091,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter4$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -12097,7 +12107,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>." c="ff261407"&gt;&lt;/T&gt;&lt;T t="</t>
     </r>
@@ -12113,7 +12123,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -12129,40 +12139,26 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>" c="ff261407"&gt;&lt;/T&gt;</t>
     </r>
   </si>
   <si>
     <t>&lt;T t="您当前副本" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="还有" c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00ff00"&gt;&lt;/T&gt;&lt;T t="的进度奖励没有获取." c="ff261407"&gt;&lt;/T&gt;&lt;T t="重复挑战已拿到的进度奖励，将只能获得声望奖励." c="ff261407"&gt;&lt;/T&gt;</t>
-  </si>
-  <si>
-    <t>&lt;T t='套装重铸成功' c='ff00ff00'/&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;T t='此件装备无法重铸' c='ff00ff00'/&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;T t="&lt;奖励公告&gt;恭喜" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ffff0000"&gt;&lt;/T&gt;&lt;T t="击杀魔化龙王获得" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter3$"c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter4$"c="ffff8c00"&gt;&lt;/T&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;T t='1、套装点化可以增加属性值' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='2、套装点化可以增加技能或者技能目标' c='ff261407' /&gt;&lt;B/&gt;&lt;T t='3、请把需要点化的装备放在背包' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='4、恭喜发财制作独家版本等你来战' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='5、恭喜发财祝你游戏开心' c='ff261407'/&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;T t='1、装备重铸可以增加特技和特效' c='ff261407'/&gt;&lt;B/&gt;&lt;B/&gt;&lt;T t='2、请把需要点化的装备放在背包' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='4、恭喜发财制作独家版本等你来战' c='ff261407'/&gt;&lt;B/&gt;&lt;T t='5、恭喜发财祝你游戏开心' c='ff261407'/&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -12194,23 +12190,179 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="17"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -12239,7 +12391,7 @@
       <sz val="10"/>
       <color indexed="60"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -12262,12 +12414,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -12275,13 +12427,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12312,8 +12459,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -12321,13 +12654,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12363,23 +12938,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -12711,23 +13325,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2106" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2127" sqref="C2127"/>
+      <selection pane="bottomRight" activeCell="A2128" sqref="$A2128:$XFD2129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="151.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="92.1" customHeight="1">
+    <row r="1" ht="92.1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12741,7 +13357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -12752,7 +13368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -12763,7 +13379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -12774,7 +13390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -12785,7 +13401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -12796,7 +13412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -12807,7 +13423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -12818,7 +13434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -12829,7 +13445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -12840,7 +13456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -12851,7 +13467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -12862,7 +13478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -12873,7 +13489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -12884,7 +13500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -12895,7 +13511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -12939,7 +13555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1">
+    <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -12972,7 +13588,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1">
+    <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" s="13" t="s">
         <v>50</v>
       </c>
@@ -13082,7 +13698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.75" customHeight="1">
+    <row r="33" ht="12.75" customHeight="1" spans="1:3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -13258,7 +13874,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -13269,7 +13885,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -13280,7 +13896,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="1" customFormat="1">
+    <row r="51" s="1" customFormat="1" spans="1:4">
       <c r="A51" s="1">
         <v>140535</v>
       </c>
@@ -13294,7 +13910,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -13305,7 +13921,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -13316,7 +13932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -13327,7 +13943,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -13338,7 +13954,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -13349,7 +13965,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>140663</v>
       </c>
@@ -13360,7 +13976,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>140664</v>
       </c>
@@ -13371,7 +13987,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -13382,7 +13998,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>123</v>
       </c>
@@ -13393,7 +14009,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -13404,7 +14020,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -13415,7 +14031,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -13426,7 +14042,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -15406,7 +16022,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="12.75" customHeight="1">
+    <row r="244" ht="12.75" customHeight="1" spans="1:3">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -15758,7 +16374,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="12.75" customHeight="1">
+    <row r="276" ht="12.75" customHeight="1" spans="1:3">
       <c r="A276" t="s">
         <v>546</v>
       </c>
@@ -16077,7 +16693,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>601</v>
       </c>
@@ -16088,7 +16704,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>603</v>
       </c>
@@ -16099,7 +16715,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>605</v>
       </c>
@@ -16110,7 +16726,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>607</v>
       </c>
@@ -16121,7 +16737,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>609</v>
       </c>
@@ -16132,7 +16748,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>611</v>
       </c>
@@ -16143,7 +16759,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>612</v>
       </c>
@@ -16154,7 +16770,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>614</v>
       </c>
@@ -16165,7 +16781,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>616</v>
       </c>
@@ -16190,7 +16806,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>621</v>
       </c>
@@ -16201,7 +16817,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>623</v>
       </c>
@@ -16212,7 +16828,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>625</v>
       </c>
@@ -16223,7 +16839,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>627</v>
       </c>
@@ -16234,7 +16850,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>629</v>
       </c>
@@ -16245,7 +16861,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>631</v>
       </c>
@@ -17136,7 +17752,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
         <v>791</v>
       </c>
@@ -17147,7 +17763,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
         <v>793</v>
       </c>
@@ -17158,7 +17774,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
         <v>795</v>
       </c>
@@ -17169,7 +17785,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
         <v>797</v>
       </c>
@@ -17180,7 +17796,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
         <v>799</v>
       </c>
@@ -17191,7 +17807,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
         <v>801</v>
       </c>
@@ -17202,7 +17818,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
         <v>803</v>
       </c>
@@ -17213,7 +17829,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>805</v>
       </c>
@@ -17224,7 +17840,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
         <v>807</v>
       </c>
@@ -17235,7 +17851,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
         <v>809</v>
       </c>
@@ -17246,7 +17862,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
         <v>811</v>
       </c>
@@ -17271,7 +17887,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
         <v>816</v>
       </c>
@@ -17282,7 +17898,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
         <v>818</v>
       </c>
@@ -17293,7 +17909,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
         <v>820</v>
       </c>
@@ -17304,7 +17920,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
         <v>822</v>
       </c>
@@ -17329,7 +17945,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
         <v>827</v>
       </c>
@@ -17340,7 +17956,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
         <v>829</v>
       </c>
@@ -17351,7 +17967,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
         <v>831</v>
       </c>
@@ -17362,7 +17978,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
         <v>833</v>
       </c>
@@ -17373,7 +17989,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
         <v>835</v>
       </c>
@@ -17384,7 +18000,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
         <v>837</v>
       </c>
@@ -17395,7 +18011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>838</v>
       </c>
@@ -17406,7 +18022,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
         <v>840</v>
       </c>
@@ -17417,7 +18033,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
         <v>842</v>
       </c>
@@ -17428,7 +18044,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
         <v>844</v>
       </c>
@@ -17439,7 +18055,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
         <v>846</v>
       </c>
@@ -17450,7 +18066,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
         <v>848</v>
       </c>
@@ -17461,7 +18077,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
         <v>850</v>
       </c>
@@ -17472,7 +18088,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
         <v>852</v>
       </c>
@@ -17483,7 +18099,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
         <v>854</v>
       </c>
@@ -18550,7 +19166,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:3">
       <c r="A529" t="s">
         <v>1042</v>
       </c>
@@ -18561,7 +19177,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:3">
       <c r="A530">
         <v>150001</v>
       </c>
@@ -19468,7 +20084,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:3">
       <c r="A595">
         <v>150075</v>
       </c>
@@ -19913,7 +20529,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:3">
       <c r="A627">
         <v>150108</v>
       </c>
@@ -20624,7 +21240,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:3">
       <c r="A678">
         <v>150161</v>
       </c>
@@ -20635,7 +21251,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:3">
       <c r="A679">
         <v>150162</v>
       </c>
@@ -20646,7 +21262,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:3">
       <c r="A680">
         <v>150163</v>
       </c>
@@ -20657,7 +21273,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:3">
       <c r="A681">
         <v>150164</v>
       </c>
@@ -20668,7 +21284,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:3">
       <c r="A682">
         <v>150165</v>
       </c>
@@ -20679,7 +21295,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:3">
       <c r="A683">
         <v>150166</v>
       </c>
@@ -20690,7 +21306,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:3">
       <c r="A684">
         <v>150167</v>
       </c>
@@ -20701,7 +21317,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:3">
       <c r="A685">
         <v>150168</v>
       </c>
@@ -20768,7 +21384,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:3">
       <c r="A690">
         <v>150173</v>
       </c>
@@ -20891,7 +21507,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="16.5">
+    <row r="699" ht="16.5" spans="1:4">
       <c r="A699">
         <v>150191</v>
       </c>
@@ -22767,7 +23383,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="833" spans="1:4">
+    <row r="833" spans="1:3">
       <c r="A833">
         <v>160067</v>
       </c>
@@ -23492,7 +24108,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="885" spans="1:4">
+    <row r="885" spans="1:3">
       <c r="A885">
         <v>160149</v>
       </c>
@@ -23503,7 +24119,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="886" spans="1:4">
+    <row r="886" spans="1:3">
       <c r="A886">
         <v>160150</v>
       </c>
@@ -23514,7 +24130,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="887" spans="1:4">
+    <row r="887" spans="1:3">
       <c r="A887">
         <v>160151</v>
       </c>
@@ -23525,7 +24141,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="888" spans="1:4">
+    <row r="888" spans="1:3">
       <c r="A888">
         <v>160152</v>
       </c>
@@ -23536,7 +24152,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="889" spans="1:4">
+    <row r="889" spans="1:3">
       <c r="A889">
         <v>160153</v>
       </c>
@@ -23547,7 +24163,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="890" spans="1:4">
+    <row r="890" spans="1:3">
       <c r="A890">
         <v>160154</v>
       </c>
@@ -23558,7 +24174,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="891" spans="1:4">
+    <row r="891" spans="1:3">
       <c r="A891">
         <v>160155</v>
       </c>
@@ -23569,7 +24185,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="892" spans="1:4">
+    <row r="892" spans="1:3">
       <c r="A892">
         <v>160156</v>
       </c>
@@ -24140,7 +24756,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="933" spans="1:4">
+    <row r="933" spans="1:3">
       <c r="A933">
         <v>160197</v>
       </c>
@@ -24711,7 +25327,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="974" spans="1:4">
+    <row r="974" spans="1:3">
       <c r="A974">
         <v>160238</v>
       </c>
@@ -24750,7 +25366,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="977" spans="1:4">
+    <row r="977" spans="1:3">
       <c r="A977">
         <v>160241</v>
       </c>
@@ -24761,7 +25377,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="978" spans="1:4">
+    <row r="978" spans="1:3">
       <c r="A978">
         <v>160242</v>
       </c>
@@ -25416,7 +26032,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="1025" spans="1:4">
+    <row r="1025" spans="1:3">
       <c r="A1025">
         <v>160331</v>
       </c>
@@ -25623,7 +26239,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="1040" spans="1:4" ht="17.25">
+    <row r="1040" ht="17.25" spans="1:4">
       <c r="A1040">
         <v>160346</v>
       </c>
@@ -27275,7 +27891,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="1158" spans="1:4">
+    <row r="1158" spans="1:3">
       <c r="A1158">
         <v>160480</v>
       </c>
@@ -27748,7 +28364,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="1192" spans="1:4">
+    <row r="1192" spans="1:3">
       <c r="A1192">
         <v>162004</v>
       </c>
@@ -27759,7 +28375,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="1193" spans="1:4">
+    <row r="1193" spans="1:3">
       <c r="A1193">
         <v>162005</v>
       </c>
@@ -27770,7 +28386,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="1194" spans="1:4">
+    <row r="1194" spans="1:3">
       <c r="A1194">
         <v>162006</v>
       </c>
@@ -27781,7 +28397,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="1195" spans="1:4">
+    <row r="1195" spans="1:3">
       <c r="A1195">
         <v>162007</v>
       </c>
@@ -27792,7 +28408,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="1196" spans="1:4">
+    <row r="1196" spans="1:3">
       <c r="A1196">
         <v>162008</v>
       </c>
@@ -27803,7 +28419,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="1197" spans="1:4">
+    <row r="1197" spans="1:3">
       <c r="A1197">
         <v>162009</v>
       </c>
@@ -27814,7 +28430,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="1198" spans="1:4">
+    <row r="1198" spans="1:3">
       <c r="A1198">
         <v>162010</v>
       </c>
@@ -27825,7 +28441,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="1199" spans="1:4">
+    <row r="1199" spans="1:3">
       <c r="A1199">
         <v>162011</v>
       </c>
@@ -27836,7 +28452,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="1200" spans="1:4">
+    <row r="1200" spans="1:3">
       <c r="A1200">
         <v>162012</v>
       </c>
@@ -27847,7 +28463,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="1201" spans="1:4">
+    <row r="1201" spans="1:3">
       <c r="A1201">
         <v>162013</v>
       </c>
@@ -27858,7 +28474,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="1202" spans="1:4">
+    <row r="1202" spans="1:3">
       <c r="A1202">
         <v>162014</v>
       </c>
@@ -27869,7 +28485,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="1203" spans="1:4">
+    <row r="1203" spans="1:3">
       <c r="A1203">
         <v>162015</v>
       </c>
@@ -27880,7 +28496,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="1204" spans="1:4">
+    <row r="1204" spans="1:3">
       <c r="A1204">
         <v>162016</v>
       </c>
@@ -27891,7 +28507,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="1205" spans="1:4">
+    <row r="1205" spans="1:3">
       <c r="A1205">
         <v>162017</v>
       </c>
@@ -27902,7 +28518,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="1206" spans="1:4">
+    <row r="1206" spans="1:3">
       <c r="A1206">
         <v>162018</v>
       </c>
@@ -27913,7 +28529,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="1207" spans="1:4">
+    <row r="1207" spans="1:3">
       <c r="A1207">
         <v>162019</v>
       </c>
@@ -27924,7 +28540,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="1208" spans="1:4">
+    <row r="1208" spans="1:3">
       <c r="A1208">
         <v>162020</v>
       </c>
@@ -27935,7 +28551,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="1209" spans="1:4">
+    <row r="1209" spans="1:3">
       <c r="A1209">
         <v>162021</v>
       </c>
@@ -27946,7 +28562,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="1210" spans="1:4">
+    <row r="1210" spans="1:3">
       <c r="A1210">
         <v>162022</v>
       </c>
@@ -27957,7 +28573,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="1211" spans="1:4">
+    <row r="1211" spans="1:3">
       <c r="A1211">
         <v>162023</v>
       </c>
@@ -27968,7 +28584,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="1212" spans="1:4">
+    <row r="1212" spans="1:3">
       <c r="A1212">
         <v>162024</v>
       </c>
@@ -28119,7 +28735,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="1223" spans="1:4">
+    <row r="1223" spans="1:3">
       <c r="A1223">
         <v>162035</v>
       </c>
@@ -28130,7 +28746,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="1224" spans="1:4">
+    <row r="1224" spans="1:3">
       <c r="A1224">
         <v>162036</v>
       </c>
@@ -28141,7 +28757,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="1225" spans="1:4">
+    <row r="1225" spans="1:3">
       <c r="A1225">
         <v>162037</v>
       </c>
@@ -28152,7 +28768,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="1226" spans="1:4">
+    <row r="1226" spans="1:3">
       <c r="A1226">
         <v>162038</v>
       </c>
@@ -28163,7 +28779,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="1227" spans="1:4">
+    <row r="1227" spans="1:3">
       <c r="A1227">
         <v>162039</v>
       </c>
@@ -28174,7 +28790,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="1228" spans="1:4">
+    <row r="1228" spans="1:3">
       <c r="A1228">
         <v>162040</v>
       </c>
@@ -28185,7 +28801,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="1229" spans="1:4">
+    <row r="1229" spans="1:3">
       <c r="A1229">
         <v>162041</v>
       </c>
@@ -28196,7 +28812,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1230" spans="1:4">
+    <row r="1230" spans="1:3">
       <c r="A1230">
         <v>162042</v>
       </c>
@@ -28207,7 +28823,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="1231" spans="1:4">
+    <row r="1231" spans="1:3">
       <c r="A1231">
         <v>162043</v>
       </c>
@@ -28218,7 +28834,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="1232" spans="1:4">
+    <row r="1232" spans="1:3">
       <c r="A1232">
         <v>162044</v>
       </c>
@@ -28229,7 +28845,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="1233" spans="1:4">
+    <row r="1233" spans="1:3">
       <c r="A1233">
         <v>162045</v>
       </c>
@@ -28240,7 +28856,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="1234" spans="1:4">
+    <row r="1234" spans="1:3">
       <c r="A1234">
         <v>162046</v>
       </c>
@@ -28251,7 +28867,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="1235" spans="1:4">
+    <row r="1235" spans="1:3">
       <c r="A1235">
         <v>162047</v>
       </c>
@@ -28262,7 +28878,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="1236" spans="1:4">
+    <row r="1236" spans="1:3">
       <c r="A1236">
         <v>162048</v>
       </c>
@@ -28273,7 +28889,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="1237" spans="1:4">
+    <row r="1237" spans="1:3">
       <c r="A1237">
         <v>162049</v>
       </c>
@@ -28284,7 +28900,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="1238" spans="1:4">
+    <row r="1238" spans="1:3">
       <c r="A1238">
         <v>162050</v>
       </c>
@@ -28295,7 +28911,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="1239" spans="1:4">
+    <row r="1239" spans="1:3">
       <c r="A1239">
         <v>162051</v>
       </c>
@@ -28306,7 +28922,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="1240" spans="1:4">
+    <row r="1240" spans="1:3">
       <c r="A1240">
         <v>162052</v>
       </c>
@@ -28317,7 +28933,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="1241" spans="1:4">
+    <row r="1241" spans="1:3">
       <c r="A1241">
         <v>162053</v>
       </c>
@@ -28328,7 +28944,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="1242" spans="1:4">
+    <row r="1242" spans="1:3">
       <c r="A1242">
         <v>162054</v>
       </c>
@@ -28339,7 +28955,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="1243" spans="1:4">
+    <row r="1243" spans="1:3">
       <c r="A1243">
         <v>162055</v>
       </c>
@@ -28392,7 +29008,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="1247" spans="1:4">
+    <row r="1247" spans="1:3">
       <c r="A1247">
         <v>162059</v>
       </c>
@@ -28403,7 +29019,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="1248" spans="1:4">
+    <row r="1248" spans="1:3">
       <c r="A1248">
         <v>162060</v>
       </c>
@@ -28414,7 +29030,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="1249" spans="1:4">
+    <row r="1249" spans="1:3">
       <c r="A1249">
         <v>162061</v>
       </c>
@@ -28425,7 +29041,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="1250" spans="1:4">
+    <row r="1250" spans="1:3">
       <c r="A1250">
         <v>162062</v>
       </c>
@@ -28436,7 +29052,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="1251" spans="1:4">
+    <row r="1251" spans="1:3">
       <c r="A1251">
         <v>162063</v>
       </c>
@@ -28447,7 +29063,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="1252" spans="1:4">
+    <row r="1252" spans="1:3">
       <c r="A1252">
         <v>162064</v>
       </c>
@@ -28472,7 +29088,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="1254" spans="1:4">
+    <row r="1254" spans="1:3">
       <c r="A1254">
         <v>162066</v>
       </c>
@@ -28483,7 +29099,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="1255" spans="1:4">
+    <row r="1255" spans="1:3">
       <c r="A1255">
         <v>162067</v>
       </c>
@@ -28494,7 +29110,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="1256" spans="1:4">
+    <row r="1256" spans="1:3">
       <c r="A1256">
         <v>162068</v>
       </c>
@@ -28505,7 +29121,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="1257" spans="1:4">
+    <row r="1257" spans="1:3">
       <c r="A1257">
         <v>162069</v>
       </c>
@@ -28516,7 +29132,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="1258" spans="1:4">
+    <row r="1258" spans="1:3">
       <c r="A1258">
         <v>162070</v>
       </c>
@@ -28527,7 +29143,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="1259" spans="1:4">
+    <row r="1259" spans="1:3">
       <c r="A1259">
         <v>162071</v>
       </c>
@@ -28538,7 +29154,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="1260" spans="1:4">
+    <row r="1260" spans="1:3">
       <c r="A1260">
         <v>162072</v>
       </c>
@@ -28549,7 +29165,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="1261" spans="1:4">
+    <row r="1261" spans="1:3">
       <c r="A1261">
         <v>162073</v>
       </c>
@@ -28560,7 +29176,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="1262" spans="1:4">
+    <row r="1262" spans="1:3">
       <c r="A1262">
         <v>162074</v>
       </c>
@@ -28571,7 +29187,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="1263" spans="1:4">
+    <row r="1263" spans="1:3">
       <c r="A1263">
         <v>162075</v>
       </c>
@@ -28582,7 +29198,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="1264" spans="1:4">
+    <row r="1264" spans="1:3">
       <c r="A1264">
         <v>162076</v>
       </c>
@@ -29044,7 +29660,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="1306" spans="1:3" ht="15" customHeight="1">
+    <row r="1306" ht="15" customHeight="1" spans="1:3">
       <c r="A1306">
         <v>162118</v>
       </c>
@@ -29055,7 +29671,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="1307" spans="1:3" ht="15" customHeight="1">
+    <row r="1307" ht="15" customHeight="1" spans="1:3">
       <c r="A1307">
         <v>162119</v>
       </c>
@@ -29066,7 +29682,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="1308" spans="1:3" ht="15" customHeight="1">
+    <row r="1308" ht="15" customHeight="1" spans="1:3">
       <c r="A1308">
         <v>162120</v>
       </c>
@@ -29077,7 +29693,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="1309" spans="1:3" ht="15" customHeight="1">
+    <row r="1309" ht="15" customHeight="1" spans="1:3">
       <c r="A1309">
         <v>162121</v>
       </c>
@@ -29088,7 +29704,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="1310" spans="1:3" ht="15" customHeight="1">
+    <row r="1310" ht="15" customHeight="1" spans="1:3">
       <c r="A1310">
         <v>162122</v>
       </c>
@@ -29099,7 +29715,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="1311" spans="1:3" ht="18" customHeight="1">
+    <row r="1311" ht="18" customHeight="1" spans="1:3">
       <c r="A1311">
         <v>162123</v>
       </c>
@@ -29110,7 +29726,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="1312" spans="1:3" ht="18" customHeight="1">
+    <row r="1312" ht="18" customHeight="1" spans="1:3">
       <c r="A1312">
         <v>162124</v>
       </c>
@@ -29121,7 +29737,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="1313" spans="1:3" ht="18" customHeight="1">
+    <row r="1313" ht="18" customHeight="1" spans="1:3">
       <c r="A1313">
         <v>162125</v>
       </c>
@@ -29132,7 +29748,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="1314" spans="1:3" ht="18" customHeight="1">
+    <row r="1314" ht="18" customHeight="1" spans="1:3">
       <c r="A1314">
         <v>162126</v>
       </c>
@@ -29143,7 +29759,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="1315" spans="1:3" ht="18" customHeight="1">
+    <row r="1315" ht="18" customHeight="1" spans="1:3">
       <c r="A1315">
         <v>162127</v>
       </c>
@@ -29154,7 +29770,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="1316" spans="1:3" ht="18" customHeight="1">
+    <row r="1316" ht="18" customHeight="1" spans="1:3">
       <c r="A1316">
         <v>162128</v>
       </c>
@@ -29165,7 +29781,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="1317" spans="1:3" ht="18" customHeight="1">
+    <row r="1317" ht="18" customHeight="1" spans="1:3">
       <c r="A1317">
         <v>162129</v>
       </c>
@@ -29176,7 +29792,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="1318" spans="1:3" ht="18" customHeight="1">
+    <row r="1318" ht="18" customHeight="1" spans="1:3">
       <c r="A1318">
         <v>162130</v>
       </c>
@@ -29187,7 +29803,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="1319" spans="1:3" ht="18" customHeight="1">
+    <row r="1319" ht="18" customHeight="1" spans="1:3">
       <c r="A1319">
         <v>162131</v>
       </c>
@@ -29198,7 +29814,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="1320" spans="1:3" ht="18" customHeight="1">
+    <row r="1320" ht="18" customHeight="1" spans="1:3">
       <c r="A1320">
         <v>162132</v>
       </c>
@@ -29209,7 +29825,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="1321" spans="1:3" ht="18" customHeight="1">
+    <row r="1321" ht="18" customHeight="1" spans="1:3">
       <c r="A1321">
         <v>162133</v>
       </c>
@@ -29220,7 +29836,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="1322" spans="1:3" ht="18" customHeight="1">
+    <row r="1322" ht="18" customHeight="1" spans="1:3">
       <c r="A1322">
         <v>162134</v>
       </c>
@@ -29231,7 +29847,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="1323" spans="1:3" ht="18" customHeight="1">
+    <row r="1323" ht="18" customHeight="1" spans="1:3">
       <c r="A1323">
         <v>162135</v>
       </c>
@@ -29242,7 +29858,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="1324" spans="1:3" ht="18" customHeight="1">
+    <row r="1324" ht="18" customHeight="1" spans="1:3">
       <c r="A1324">
         <v>162136</v>
       </c>
@@ -29253,7 +29869,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="1325" spans="1:3" ht="18" customHeight="1">
+    <row r="1325" ht="18" customHeight="1" spans="1:3">
       <c r="A1325">
         <v>162137</v>
       </c>
@@ -29264,7 +29880,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="1326" spans="1:3" ht="18" customHeight="1">
+    <row r="1326" ht="18" customHeight="1" spans="1:3">
       <c r="A1326">
         <v>162138</v>
       </c>
@@ -29275,7 +29891,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="1327" spans="1:3" ht="18" customHeight="1">
+    <row r="1327" ht="18" customHeight="1" spans="1:3">
       <c r="A1327">
         <v>162139</v>
       </c>
@@ -29286,7 +29902,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="1328" spans="1:3" ht="18" customHeight="1">
+    <row r="1328" ht="18" customHeight="1" spans="1:3">
       <c r="A1328">
         <v>162140</v>
       </c>
@@ -29297,7 +29913,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="1329" spans="1:3" ht="18" customHeight="1">
+    <row r="1329" ht="18" customHeight="1" spans="1:3">
       <c r="A1329">
         <v>162141</v>
       </c>
@@ -29308,7 +29924,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="1330" spans="1:3" ht="18" customHeight="1">
+    <row r="1330" ht="18" customHeight="1" spans="1:3">
       <c r="A1330">
         <v>162142</v>
       </c>
@@ -29319,7 +29935,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="1331" spans="1:3" ht="18" customHeight="1">
+    <row r="1331" ht="18" customHeight="1" spans="1:3">
       <c r="A1331">
         <v>162143</v>
       </c>
@@ -29330,7 +29946,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="1332" spans="1:3" ht="18" customHeight="1">
+    <row r="1332" ht="18" customHeight="1" spans="1:3">
       <c r="A1332">
         <v>162144</v>
       </c>
@@ -29341,7 +29957,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="1333" spans="1:3" ht="18" customHeight="1">
+    <row r="1333" ht="18" customHeight="1" spans="1:3">
       <c r="A1333">
         <v>162145</v>
       </c>
@@ -29352,7 +29968,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="1334" spans="1:3" ht="18" customHeight="1">
+    <row r="1334" ht="18" customHeight="1" spans="1:3">
       <c r="A1334">
         <v>162146</v>
       </c>
@@ -29363,7 +29979,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="1335" spans="1:3" ht="18" customHeight="1">
+    <row r="1335" ht="18" customHeight="1" spans="1:3">
       <c r="A1335">
         <v>162147</v>
       </c>
@@ -29374,7 +29990,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="1336" spans="1:3" ht="18" customHeight="1">
+    <row r="1336" ht="18" customHeight="1" spans="1:3">
       <c r="A1336">
         <v>162148</v>
       </c>
@@ -29385,7 +30001,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="1337" spans="1:3" ht="18" customHeight="1">
+    <row r="1337" ht="18" customHeight="1" spans="1:3">
       <c r="A1337">
         <v>162149</v>
       </c>
@@ -29396,7 +30012,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="1338" spans="1:3" ht="18" customHeight="1">
+    <row r="1338" ht="18" customHeight="1" spans="1:3">
       <c r="A1338">
         <v>162150</v>
       </c>
@@ -29407,7 +30023,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="1339" spans="1:3" ht="18" customHeight="1">
+    <row r="1339" ht="18" customHeight="1" spans="1:3">
       <c r="A1339">
         <v>162151</v>
       </c>
@@ -29418,7 +30034,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="1340" spans="1:3" ht="18" customHeight="1">
+    <row r="1340" ht="18" customHeight="1" spans="1:3">
       <c r="A1340">
         <v>162152</v>
       </c>
@@ -29429,7 +30045,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="1341" spans="1:3" ht="18" customHeight="1">
+    <row r="1341" ht="18" customHeight="1" spans="1:3">
       <c r="A1341">
         <v>162153</v>
       </c>
@@ -29440,7 +30056,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="1342" spans="1:3" ht="18" customHeight="1">
+    <row r="1342" ht="18" customHeight="1" spans="1:3">
       <c r="A1342">
         <v>162154</v>
       </c>
@@ -29451,7 +30067,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="1343" spans="1:3" ht="18" customHeight="1">
+    <row r="1343" ht="18" customHeight="1" spans="1:3">
       <c r="A1343">
         <v>162155</v>
       </c>
@@ -29462,7 +30078,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="1344" spans="1:3" ht="18" customHeight="1">
+    <row r="1344" ht="18" customHeight="1" spans="1:3">
       <c r="A1344">
         <v>162156</v>
       </c>
@@ -29473,7 +30089,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="1345" spans="1:3" ht="18" customHeight="1">
+    <row r="1345" ht="18" customHeight="1" spans="1:3">
       <c r="A1345">
         <v>162157</v>
       </c>
@@ -29484,7 +30100,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="1346" spans="1:3" ht="18" customHeight="1">
+    <row r="1346" ht="18" customHeight="1" spans="1:3">
       <c r="A1346">
         <v>162158</v>
       </c>
@@ -29495,7 +30111,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="1347" spans="1:3" ht="18" customHeight="1">
+    <row r="1347" ht="18" customHeight="1" spans="1:3">
       <c r="A1347">
         <v>162159</v>
       </c>
@@ -29506,7 +30122,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="1348" spans="1:3" ht="18" customHeight="1">
+    <row r="1348" ht="18" customHeight="1" spans="1:3">
       <c r="A1348">
         <v>162160</v>
       </c>
@@ -29517,7 +30133,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="1349" spans="1:3" ht="18" customHeight="1">
+    <row r="1349" ht="18" customHeight="1" spans="1:3">
       <c r="A1349">
         <v>162161</v>
       </c>
@@ -29528,7 +30144,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="1350" spans="1:3" ht="18" customHeight="1">
+    <row r="1350" ht="18" customHeight="1" spans="1:3">
       <c r="A1350">
         <v>162162</v>
       </c>
@@ -29539,7 +30155,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="1351" spans="1:3" ht="18" customHeight="1">
+    <row r="1351" ht="18" customHeight="1" spans="1:3">
       <c r="A1351">
         <v>162163</v>
       </c>
@@ -29550,7 +30166,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="1352" spans="1:3" ht="18" customHeight="1">
+    <row r="1352" ht="18" customHeight="1" spans="1:3">
       <c r="A1352">
         <v>162164</v>
       </c>
@@ -29561,7 +30177,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="1353" spans="1:3" ht="18" customHeight="1">
+    <row r="1353" ht="18" customHeight="1" spans="1:3">
       <c r="A1353">
         <v>162165</v>
       </c>
@@ -29572,7 +30188,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="1354" spans="1:3" ht="18" customHeight="1">
+    <row r="1354" ht="18" customHeight="1" spans="1:3">
       <c r="A1354">
         <v>162166</v>
       </c>
@@ -29583,7 +30199,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="1355" spans="1:3" ht="18" customHeight="1">
+    <row r="1355" ht="18" customHeight="1" spans="1:3">
       <c r="A1355">
         <v>162167</v>
       </c>
@@ -29594,7 +30210,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="1356" spans="1:3" ht="18" customHeight="1">
+    <row r="1356" ht="18" customHeight="1" spans="1:3">
       <c r="A1356">
         <v>162168</v>
       </c>
@@ -29605,7 +30221,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="1357" spans="1:3" ht="18" customHeight="1">
+    <row r="1357" ht="18" customHeight="1" spans="1:3">
       <c r="A1357">
         <v>162169</v>
       </c>
@@ -29616,7 +30232,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="1358" spans="1:3" ht="18" customHeight="1">
+    <row r="1358" ht="18" customHeight="1" spans="1:3">
       <c r="A1358">
         <v>162170</v>
       </c>
@@ -29627,7 +30243,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="1359" spans="1:3" ht="18" customHeight="1">
+    <row r="1359" ht="18" customHeight="1" spans="1:3">
       <c r="A1359">
         <v>162171</v>
       </c>
@@ -29638,7 +30254,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1360" spans="1:3" ht="18" customHeight="1">
+    <row r="1360" ht="18" customHeight="1" spans="1:3">
       <c r="A1360">
         <v>162172</v>
       </c>
@@ -29649,7 +30265,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="1361" spans="1:3" ht="18" customHeight="1">
+    <row r="1361" ht="18" customHeight="1" spans="1:3">
       <c r="A1361">
         <v>162173</v>
       </c>
@@ -29660,7 +30276,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="1362" spans="1:3" ht="18" customHeight="1">
+    <row r="1362" ht="18" customHeight="1" spans="1:3">
       <c r="A1362">
         <v>162174</v>
       </c>
@@ -29671,7 +30287,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="1363" spans="1:3" ht="18" customHeight="1">
+    <row r="1363" ht="18" customHeight="1" spans="1:3">
       <c r="A1363">
         <v>162175</v>
       </c>
@@ -29682,7 +30298,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="1364" spans="1:3" ht="18" customHeight="1">
+    <row r="1364" ht="18" customHeight="1" spans="1:3">
       <c r="A1364">
         <v>162176</v>
       </c>
@@ -29693,7 +30309,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="1365" spans="1:3" ht="18" customHeight="1">
+    <row r="1365" ht="18" customHeight="1" spans="1:3">
       <c r="A1365">
         <v>162177</v>
       </c>
@@ -29825,7 +30441,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="1377" spans="1:3" ht="18" customHeight="1">
+    <row r="1377" ht="18" customHeight="1" spans="1:3">
       <c r="A1377">
         <v>162189</v>
       </c>
@@ -29836,7 +30452,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="1378" spans="1:3" ht="18" customHeight="1">
+    <row r="1378" ht="18" customHeight="1" spans="1:3">
       <c r="A1378">
         <v>162190</v>
       </c>
@@ -29847,7 +30463,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="1379" spans="1:3" ht="18" customHeight="1">
+    <row r="1379" ht="18" customHeight="1" spans="1:3">
       <c r="A1379">
         <v>162191</v>
       </c>
@@ -29858,7 +30474,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="1380" spans="1:3" ht="18" customHeight="1">
+    <row r="1380" ht="18" customHeight="1" spans="1:3">
       <c r="A1380">
         <v>162192</v>
       </c>
@@ -29869,7 +30485,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="1381" spans="1:3" ht="18" customHeight="1">
+    <row r="1381" ht="18" customHeight="1" spans="1:3">
       <c r="A1381">
         <v>162193</v>
       </c>
@@ -29880,7 +30496,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="1382" spans="1:3" ht="18" customHeight="1">
+    <row r="1382" ht="18" customHeight="1" spans="1:3">
       <c r="A1382">
         <v>162194</v>
       </c>
@@ -29891,7 +30507,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="1383" spans="1:3" ht="18" customHeight="1">
+    <row r="1383" ht="18" customHeight="1" spans="1:3">
       <c r="A1383">
         <v>162195</v>
       </c>
@@ -29902,7 +30518,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="1384" spans="1:3" ht="18" customHeight="1">
+    <row r="1384" ht="18" customHeight="1" spans="1:3">
       <c r="A1384">
         <v>162196</v>
       </c>
@@ -29913,7 +30529,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="1385" spans="1:3" ht="18" customHeight="1">
+    <row r="1385" ht="18" customHeight="1" spans="1:3">
       <c r="A1385">
         <v>162197</v>
       </c>
@@ -29924,7 +30540,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="1386" spans="1:3" ht="18" customHeight="1">
+    <row r="1386" ht="18" customHeight="1" spans="1:3">
       <c r="A1386">
         <v>162198</v>
       </c>
@@ -29935,7 +30551,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="1387" spans="1:3" ht="18" customHeight="1">
+    <row r="1387" ht="18" customHeight="1" spans="1:3">
       <c r="A1387">
         <v>162199</v>
       </c>
@@ -30001,7 +30617,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="1393" spans="1:4">
+    <row r="1393" spans="1:3">
       <c r="A1393">
         <v>166002</v>
       </c>
@@ -30012,7 +30628,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="1394" spans="1:4">
+    <row r="1394" spans="1:3">
       <c r="A1394">
         <v>166003</v>
       </c>
@@ -30023,7 +30639,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="1395" spans="1:4">
+    <row r="1395" spans="1:3">
       <c r="A1395">
         <v>166004</v>
       </c>
@@ -30762,7 +31378,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1448" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1448" customHeight="1" spans="1:4">
       <c r="A1448">
         <v>166058</v>
       </c>
@@ -30776,7 +31392,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="1449" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1449" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1449">
         <v>166059</v>
       </c>
@@ -30790,7 +31406,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="1450" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1450" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1450">
         <v>166060</v>
       </c>
@@ -30804,7 +31420,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="1451" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1451" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1451">
         <v>166061</v>
       </c>
@@ -30818,7 +31434,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="1452" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1452" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1452">
         <v>166062</v>
       </c>
@@ -30832,7 +31448,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="1453" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1453" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1453">
         <v>166063</v>
       </c>
@@ -30846,7 +31462,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="1454" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1454" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1454">
         <v>166064</v>
       </c>
@@ -30860,7 +31476,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="1455" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1455" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1455">
         <v>166065</v>
       </c>
@@ -30874,7 +31490,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="1456" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1456" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1456">
         <v>166066</v>
       </c>
@@ -30888,7 +31504,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="1457" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1457" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1457">
         <v>166067</v>
       </c>
@@ -30902,7 +31518,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="1458" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1458" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1458">
         <v>166068</v>
       </c>
@@ -30916,7 +31532,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="1459" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1459" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1459">
         <v>166069</v>
       </c>
@@ -30930,7 +31546,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="1460" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1460" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1460">
         <v>166070</v>
       </c>
@@ -30944,7 +31560,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="1461" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1461" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1461">
         <v>166071</v>
       </c>
@@ -30958,7 +31574,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="1462" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1462" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1462">
         <v>166072</v>
       </c>
@@ -30972,7 +31588,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="1463" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1463" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1463">
         <v>166073</v>
       </c>
@@ -30986,7 +31602,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1464" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1464" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1464">
         <v>166074</v>
       </c>
@@ -31000,7 +31616,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1465" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1465" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1465">
         <v>166075</v>
       </c>
@@ -31014,7 +31630,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1466" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1466" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1466">
         <v>166076</v>
       </c>
@@ -31042,7 +31658,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="1468" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1468" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1468">
         <v>166078</v>
       </c>
@@ -31294,7 +31910,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="1486" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1486" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1486">
         <v>166096</v>
       </c>
@@ -31308,7 +31924,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="1487" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1487" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1487">
         <v>166097</v>
       </c>
@@ -31322,7 +31938,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="1488" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1488" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1488">
         <v>166098</v>
       </c>
@@ -31336,7 +31952,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="1489" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1489" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1489">
         <v>166099</v>
       </c>
@@ -31350,7 +31966,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1490" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1490" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1490">
         <v>166100</v>
       </c>
@@ -31420,7 +32036,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="1495" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1495" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1495">
         <v>166105</v>
       </c>
@@ -31434,7 +32050,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1496" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1496" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1496">
         <v>166106</v>
       </c>
@@ -31448,7 +32064,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="1497" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1497" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1497">
         <v>166107</v>
       </c>
@@ -31462,7 +32078,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="1498" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1498" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1498">
         <v>166108</v>
       </c>
@@ -31476,7 +32092,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="1499" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1499" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1499">
         <v>166109</v>
       </c>
@@ -31490,7 +32106,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="1500" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1500" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1500">
         <v>166110</v>
       </c>
@@ -31504,7 +32120,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="1501" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1501" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1501">
         <v>166111</v>
       </c>
@@ -31518,7 +32134,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="1502" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1502" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1502">
         <v>166112</v>
       </c>
@@ -31532,7 +32148,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="1503" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1503" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1503">
         <v>166113</v>
       </c>
@@ -31546,7 +32162,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="1504" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1504" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1504">
         <v>166114</v>
       </c>
@@ -31560,7 +32176,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="1505" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1505" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1505">
         <v>166115</v>
       </c>
@@ -31574,7 +32190,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1506" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1506" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1506">
         <v>166116</v>
       </c>
@@ -31588,7 +32204,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1507" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1507" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1507">
         <v>166117</v>
       </c>
@@ -31602,7 +32218,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="1508" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1508" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1508">
         <v>166118</v>
       </c>
@@ -31616,7 +32232,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="1509" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1509" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1509">
         <v>166119</v>
       </c>
@@ -31630,7 +32246,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="1510" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1510" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1510">
         <v>166120</v>
       </c>
@@ -31644,7 +32260,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1511" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1511" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1511">
         <v>166121</v>
       </c>
@@ -31658,7 +32274,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="1512" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1512" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1512">
         <v>166122</v>
       </c>
@@ -31672,7 +32288,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="1513" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1513" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1513">
         <v>166123</v>
       </c>
@@ -31686,7 +32302,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="1514" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1514" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1514">
         <v>166124</v>
       </c>
@@ -31700,7 +32316,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="1515" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1515" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1515">
         <v>166125</v>
       </c>
@@ -31714,7 +32330,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="1516" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1516" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1516">
         <v>166126</v>
       </c>
@@ -31728,7 +32344,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="1517" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1517" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1517">
         <v>166127</v>
       </c>
@@ -31742,7 +32358,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="1518" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1518" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1518">
         <v>166128</v>
       </c>
@@ -31756,7 +32372,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="1519" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1519" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1519">
         <v>166129</v>
       </c>
@@ -31770,7 +32386,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="1520" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1520" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1520">
         <v>166130</v>
       </c>
@@ -31784,7 +32400,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="1521" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1521" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1521">
         <v>166131</v>
       </c>
@@ -31798,7 +32414,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="1522" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1522" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1522">
         <v>166132</v>
       </c>
@@ -31812,7 +32428,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="1523" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1523" ht="12.75" customHeight="1" spans="1:4">
       <c r="A1523">
         <v>166133</v>
       </c>
@@ -31840,7 +32456,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="1525" spans="1:4" ht="18" customHeight="1">
+    <row r="1525" ht="18" customHeight="1" spans="1:4">
       <c r="A1525">
         <v>166135</v>
       </c>
@@ -31854,7 +32470,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="1526" spans="1:4" ht="18" customHeight="1">
+    <row r="1526" ht="18" customHeight="1" spans="1:4">
       <c r="A1526">
         <v>166136</v>
       </c>
@@ -31868,7 +32484,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="1527" spans="1:4" ht="18" customHeight="1">
+    <row r="1527" ht="18" customHeight="1" spans="1:4">
       <c r="A1527">
         <v>166137</v>
       </c>
@@ -31952,7 +32568,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="1533" spans="1:4">
+    <row r="1533" spans="1:3">
       <c r="A1533">
         <v>168002</v>
       </c>
@@ -32005,7 +32621,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="1537" spans="1:4">
+    <row r="1537" spans="1:3">
       <c r="A1537">
         <v>168006</v>
       </c>
@@ -32016,7 +32632,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="1538" spans="1:4">
+    <row r="1538" spans="1:3">
       <c r="A1538">
         <v>168007</v>
       </c>
@@ -32027,7 +32643,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1539" spans="1:4">
+    <row r="1539" spans="1:3">
       <c r="A1539">
         <v>168008</v>
       </c>
@@ -32136,7 +32752,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="1547" spans="1:4">
+    <row r="1547" spans="1:3">
       <c r="A1547">
         <v>168016</v>
       </c>
@@ -32147,7 +32763,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="1548" spans="1:4">
+    <row r="1548" spans="1:3">
       <c r="A1548">
         <v>168017</v>
       </c>
@@ -32354,7 +32970,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="1563" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1563" customHeight="1" spans="1:4">
       <c r="A1563">
         <v>170012</v>
       </c>
@@ -32368,7 +32984,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="1564" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1564" customHeight="1" spans="1:4">
       <c r="A1564">
         <v>170013</v>
       </c>
@@ -32382,7 +32998,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="1565" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1565" customHeight="1" spans="1:4">
       <c r="A1565">
         <v>170014</v>
       </c>
@@ -32396,7 +33012,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="1566" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1566" customHeight="1" spans="1:4">
       <c r="A1566">
         <v>170015</v>
       </c>
@@ -32410,7 +33026,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="1567" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1567" customHeight="1" spans="1:4">
       <c r="A1567">
         <v>170016</v>
       </c>
@@ -32424,7 +33040,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="1568" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1568" customHeight="1" spans="1:4">
       <c r="A1568">
         <v>170017</v>
       </c>
@@ -32438,7 +33054,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="1569" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1569" customHeight="1" spans="1:4">
       <c r="A1569">
         <v>170018</v>
       </c>
@@ -32452,7 +33068,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="1570" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1570" customHeight="1" spans="1:4">
       <c r="A1570">
         <v>170019</v>
       </c>
@@ -32466,7 +33082,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="1571" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1571" customHeight="1" spans="1:4">
       <c r="A1571">
         <v>170020</v>
       </c>
@@ -32480,7 +33096,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1572" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1572" customHeight="1" spans="1:4">
       <c r="A1572">
         <v>170021</v>
       </c>
@@ -32494,7 +33110,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="1573" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1573" customHeight="1" spans="1:4">
       <c r="A1573">
         <v>170022</v>
       </c>
@@ -32508,7 +33124,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="1574" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1574" customHeight="1" spans="1:4">
       <c r="A1574">
         <v>170023</v>
       </c>
@@ -32522,7 +33138,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="1575" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1575" customHeight="1" spans="1:4">
       <c r="A1575">
         <v>170024</v>
       </c>
@@ -32536,7 +33152,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="1576" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1576" customHeight="1" spans="1:4">
       <c r="A1576">
         <v>170025</v>
       </c>
@@ -32550,7 +33166,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="1577" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1577" customHeight="1" spans="1:4">
       <c r="A1577">
         <v>170026</v>
       </c>
@@ -32564,7 +33180,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="1578" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1578" customHeight="1" spans="1:4">
       <c r="A1578">
         <v>170027</v>
       </c>
@@ -32732,7 +33348,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="1590" spans="1:4">
+    <row r="1590" spans="1:3">
       <c r="A1590">
         <v>170039</v>
       </c>
@@ -33471,7 +34087,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="1643" spans="1:4">
+    <row r="1643" spans="1:3">
       <c r="A1643">
         <v>172011</v>
       </c>
@@ -33482,7 +34098,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="1644" spans="1:4">
+    <row r="1644" spans="1:3">
       <c r="A1644">
         <v>172012</v>
       </c>
@@ -33493,7 +34109,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="1645" spans="1:4">
+    <row r="1645" spans="1:3">
       <c r="A1645">
         <v>172013</v>
       </c>
@@ -33504,7 +34120,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="1646" spans="1:4">
+    <row r="1646" spans="1:3">
       <c r="A1646">
         <v>172014</v>
       </c>
@@ -33515,7 +34131,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="1647" spans="1:4">
+    <row r="1647" spans="1:3">
       <c r="A1647">
         <v>172015</v>
       </c>
@@ -33526,7 +34142,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="1648" spans="1:4">
+    <row r="1648" spans="1:3">
       <c r="A1648">
         <v>172016</v>
       </c>
@@ -34587,7 +35203,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="1724" spans="1:4" s="2" customFormat="1">
+    <row r="1724" s="2" customFormat="1" spans="1:4">
       <c r="A1724" s="2">
         <v>174025</v>
       </c>
@@ -34601,7 +35217,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1725" spans="1:4" s="2" customFormat="1">
+    <row r="1725" s="2" customFormat="1" spans="1:4">
       <c r="A1725" s="2">
         <v>174026</v>
       </c>
@@ -34615,7 +35231,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1726" spans="1:4" s="2" customFormat="1">
+    <row r="1726" s="2" customFormat="1" spans="1:4">
       <c r="A1726" s="2">
         <v>174027</v>
       </c>
@@ -34629,7 +35245,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1727" spans="1:4" s="2" customFormat="1">
+    <row r="1727" s="2" customFormat="1" spans="1:4">
       <c r="A1727" s="2">
         <v>174028</v>
       </c>
@@ -34643,7 +35259,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1728" spans="1:4" s="2" customFormat="1">
+    <row r="1728" s="2" customFormat="1" spans="1:4">
       <c r="A1728" s="2">
         <v>174029</v>
       </c>
@@ -34657,7 +35273,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1729" spans="1:4" s="2" customFormat="1">
+    <row r="1729" s="2" customFormat="1" spans="1:4">
       <c r="A1729" s="2">
         <v>174030</v>
       </c>
@@ -34671,7 +35287,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1730" spans="1:4" s="2" customFormat="1">
+    <row r="1730" s="2" customFormat="1" spans="1:4">
       <c r="A1730" s="2">
         <v>174031</v>
       </c>
@@ -34685,7 +35301,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1731" spans="1:4" s="2" customFormat="1">
+    <row r="1731" s="2" customFormat="1" spans="1:4">
       <c r="A1731" s="2">
         <v>174032</v>
       </c>
@@ -34699,7 +35315,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1732" spans="1:4" s="2" customFormat="1">
+    <row r="1732" s="2" customFormat="1" spans="1:4">
       <c r="A1732" s="2">
         <v>174033</v>
       </c>
@@ -34713,7 +35329,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1733" spans="1:4" s="2" customFormat="1">
+    <row r="1733" s="2" customFormat="1" spans="1:4">
       <c r="A1733" s="2">
         <v>174034</v>
       </c>
@@ -34727,7 +35343,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1734" spans="1:4" s="2" customFormat="1">
+    <row r="1734" s="2" customFormat="1" spans="1:4">
       <c r="A1734" s="2">
         <v>174035</v>
       </c>
@@ -34741,7 +35357,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1735" spans="1:4" s="2" customFormat="1">
+    <row r="1735" s="2" customFormat="1" spans="1:4">
       <c r="A1735" s="2">
         <v>174036</v>
       </c>
@@ -34755,7 +35371,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1736" spans="1:4" s="2" customFormat="1">
+    <row r="1736" s="2" customFormat="1" spans="1:4">
       <c r="A1736" s="2">
         <v>174037</v>
       </c>
@@ -34769,7 +35385,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1737" spans="1:4" s="2" customFormat="1">
+    <row r="1737" s="2" customFormat="1" spans="1:4">
       <c r="A1737" s="2">
         <v>174038</v>
       </c>
@@ -34783,7 +35399,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1738" spans="1:4" s="2" customFormat="1">
+    <row r="1738" s="2" customFormat="1" spans="1:4">
       <c r="A1738" s="2">
         <v>174039</v>
       </c>
@@ -34797,7 +35413,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1739" spans="1:4" s="2" customFormat="1">
+    <row r="1739" s="2" customFormat="1" spans="1:4">
       <c r="A1739" s="2">
         <v>174040</v>
       </c>
@@ -34811,7 +35427,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1740" spans="1:4" s="2" customFormat="1">
+    <row r="1740" s="2" customFormat="1" spans="1:4">
       <c r="A1740" s="2">
         <v>174041</v>
       </c>
@@ -34825,7 +35441,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1741" spans="1:4" s="2" customFormat="1">
+    <row r="1741" s="2" customFormat="1" spans="1:4">
       <c r="A1741" s="2">
         <v>174042</v>
       </c>
@@ -34839,7 +35455,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1742" spans="1:4" s="2" customFormat="1">
+    <row r="1742" s="2" customFormat="1" spans="1:4">
       <c r="A1742" s="2">
         <v>174043</v>
       </c>
@@ -34853,7 +35469,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1743" spans="1:4" s="2" customFormat="1">
+    <row r="1743" s="2" customFormat="1" spans="1:4">
       <c r="A1743" s="2">
         <v>174044</v>
       </c>
@@ -34867,7 +35483,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1744" spans="1:4" s="2" customFormat="1" ht="13.5" customHeight="1">
+    <row r="1744" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A1744" s="2">
         <v>174045</v>
       </c>
@@ -34881,7 +35497,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1745" spans="1:4" s="2" customFormat="1">
+    <row r="1745" s="2" customFormat="1" spans="1:4">
       <c r="A1745" s="2">
         <v>174046</v>
       </c>
@@ -34895,7 +35511,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1746" spans="1:4" s="2" customFormat="1">
+    <row r="1746" s="2" customFormat="1" spans="1:4">
       <c r="A1746" s="2">
         <v>174047</v>
       </c>
@@ -34909,7 +35525,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1747" spans="1:4" s="2" customFormat="1">
+    <row r="1747" s="2" customFormat="1" spans="1:4">
       <c r="A1747" s="2">
         <v>174048</v>
       </c>
@@ -34923,7 +35539,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1748" spans="1:4" s="2" customFormat="1">
+    <row r="1748" s="2" customFormat="1" spans="1:4">
       <c r="A1748" s="2">
         <v>174049</v>
       </c>
@@ -34937,7 +35553,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1749" spans="1:4" s="2" customFormat="1">
+    <row r="1749" s="2" customFormat="1" spans="1:4">
       <c r="A1749" s="2">
         <v>174050</v>
       </c>
@@ -34951,7 +35567,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1750" spans="1:4" s="2" customFormat="1">
+    <row r="1750" s="2" customFormat="1" spans="1:4">
       <c r="A1750" s="2">
         <v>174051</v>
       </c>
@@ -34965,7 +35581,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1751" spans="1:4" s="2" customFormat="1">
+    <row r="1751" s="2" customFormat="1" spans="1:4">
       <c r="A1751" s="2">
         <v>174052</v>
       </c>
@@ -34979,7 +35595,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1752" spans="1:4" s="2" customFormat="1">
+    <row r="1752" s="2" customFormat="1" spans="1:4">
       <c r="A1752" s="2">
         <v>174053</v>
       </c>
@@ -34993,7 +35609,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1753" spans="1:4" s="2" customFormat="1">
+    <row r="1753" s="2" customFormat="1" spans="1:4">
       <c r="A1753" s="2">
         <v>174054</v>
       </c>
@@ -35007,7 +35623,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1754" spans="1:4" s="2" customFormat="1">
+    <row r="1754" s="2" customFormat="1" spans="1:4">
       <c r="A1754" s="2">
         <v>174055</v>
       </c>
@@ -35021,7 +35637,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1755" spans="1:4" s="2" customFormat="1">
+    <row r="1755" s="2" customFormat="1" spans="1:4">
       <c r="A1755" s="2">
         <v>174056</v>
       </c>
@@ -35035,7 +35651,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1756" spans="1:4" s="2" customFormat="1">
+    <row r="1756" s="2" customFormat="1" spans="1:4">
       <c r="A1756" s="2">
         <v>174057</v>
       </c>
@@ -35049,7 +35665,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1757" spans="1:4" s="2" customFormat="1">
+    <row r="1757" s="2" customFormat="1" spans="1:4">
       <c r="A1757" s="2">
         <v>174058</v>
       </c>
@@ -35063,7 +35679,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1758" spans="1:4" s="2" customFormat="1">
+    <row r="1758" s="2" customFormat="1" spans="1:4">
       <c r="A1758" s="2">
         <v>174059</v>
       </c>
@@ -35077,7 +35693,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1759" spans="1:4" s="2" customFormat="1">
+    <row r="1759" s="2" customFormat="1" spans="1:4">
       <c r="A1759" s="2">
         <v>174060</v>
       </c>
@@ -35091,7 +35707,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1760" spans="1:4" s="2" customFormat="1">
+    <row r="1760" s="2" customFormat="1" spans="1:4">
       <c r="A1760" s="2">
         <v>174061</v>
       </c>
@@ -35105,7 +35721,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1761" spans="1:4" s="2" customFormat="1">
+    <row r="1761" s="2" customFormat="1" spans="1:4">
       <c r="A1761" s="2">
         <v>174062</v>
       </c>
@@ -35119,7 +35735,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1762" spans="1:4" s="2" customFormat="1">
+    <row r="1762" s="2" customFormat="1" spans="1:4">
       <c r="A1762" s="2">
         <v>174063</v>
       </c>
@@ -35133,7 +35749,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1763" spans="1:4" s="2" customFormat="1">
+    <row r="1763" s="2" customFormat="1" spans="1:4">
       <c r="A1763" s="2">
         <v>174064</v>
       </c>
@@ -35147,7 +35763,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1764" spans="1:4" s="2" customFormat="1">
+    <row r="1764" s="2" customFormat="1" spans="1:4">
       <c r="A1764" s="2">
         <v>174065</v>
       </c>
@@ -35161,7 +35777,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1765" spans="1:4" s="2" customFormat="1">
+    <row r="1765" s="2" customFormat="1" spans="1:4">
       <c r="A1765" s="2">
         <v>174066</v>
       </c>
@@ -35175,7 +35791,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1766" spans="1:4" s="2" customFormat="1">
+    <row r="1766" s="2" customFormat="1" spans="1:4">
       <c r="A1766" s="2">
         <v>174067</v>
       </c>
@@ -35189,7 +35805,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1767" spans="1:4" s="2" customFormat="1">
+    <row r="1767" s="2" customFormat="1" spans="1:4">
       <c r="A1767" s="2">
         <v>174068</v>
       </c>
@@ -35203,7 +35819,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1768" spans="1:4" s="2" customFormat="1">
+    <row r="1768" s="2" customFormat="1" spans="1:4">
       <c r="A1768" s="2">
         <v>174069</v>
       </c>
@@ -35217,7 +35833,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1769" spans="1:4" s="2" customFormat="1">
+    <row r="1769" s="2" customFormat="1" spans="1:4">
       <c r="A1769" s="2">
         <v>174070</v>
       </c>
@@ -35231,7 +35847,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1770" spans="1:4" s="2" customFormat="1">
+    <row r="1770" s="2" customFormat="1" spans="1:4">
       <c r="A1770" s="2">
         <v>174071</v>
       </c>
@@ -35245,7 +35861,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1771" spans="1:4" s="2" customFormat="1">
+    <row r="1771" s="2" customFormat="1" spans="1:4">
       <c r="A1771" s="2">
         <v>174072</v>
       </c>
@@ -35259,7 +35875,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1772" spans="1:4" s="2" customFormat="1">
+    <row r="1772" s="2" customFormat="1" spans="1:4">
       <c r="A1772" s="2">
         <v>174073</v>
       </c>
@@ -35273,7 +35889,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1773" spans="1:4" s="2" customFormat="1">
+    <row r="1773" s="2" customFormat="1" spans="1:4">
       <c r="A1773" s="2">
         <v>174074</v>
       </c>
@@ -35287,7 +35903,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1774" spans="1:4" s="2" customFormat="1">
+    <row r="1774" s="2" customFormat="1" spans="1:4">
       <c r="A1774" s="2">
         <v>174075</v>
       </c>
@@ -35301,7 +35917,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1775" spans="1:4" s="2" customFormat="1">
+    <row r="1775" s="2" customFormat="1" spans="1:4">
       <c r="A1775" s="2">
         <v>174076</v>
       </c>
@@ -35315,7 +35931,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1776" spans="1:4" s="2" customFormat="1">
+    <row r="1776" s="2" customFormat="1" spans="1:4">
       <c r="A1776" s="2">
         <v>174077</v>
       </c>
@@ -35329,7 +35945,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1777" spans="1:4" s="2" customFormat="1">
+    <row r="1777" s="2" customFormat="1" spans="1:4">
       <c r="A1777" s="2">
         <v>174078</v>
       </c>
@@ -35343,7 +35959,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1778" spans="1:4" s="2" customFormat="1">
+    <row r="1778" s="2" customFormat="1" spans="1:4">
       <c r="A1778" s="2">
         <v>174079</v>
       </c>
@@ -35357,7 +35973,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1779" spans="1:4" s="2" customFormat="1">
+    <row r="1779" s="2" customFormat="1" spans="1:4">
       <c r="A1779" s="2">
         <v>174080</v>
       </c>
@@ -35371,7 +35987,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1780" spans="1:4" s="2" customFormat="1">
+    <row r="1780" s="2" customFormat="1" spans="1:4">
       <c r="A1780" s="2">
         <v>174081</v>
       </c>
@@ -35385,7 +36001,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="1781" spans="1:4" s="2" customFormat="1">
+    <row r="1781" s="2" customFormat="1" spans="1:4">
       <c r="A1781" s="2">
         <v>174082</v>
       </c>
@@ -35973,7 +36589,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="1823" spans="1:4">
+    <row r="1823" spans="1:3">
       <c r="A1823">
         <v>180028</v>
       </c>
@@ -36012,7 +36628,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="1826" spans="1:4">
+    <row r="1826" spans="1:3">
       <c r="A1826">
         <v>180031</v>
       </c>
@@ -36023,7 +36639,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="1827" spans="1:4">
+    <row r="1827" spans="1:3">
       <c r="A1827">
         <v>180032</v>
       </c>
@@ -36034,7 +36650,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="1828" spans="1:4">
+    <row r="1828" spans="1:3">
       <c r="A1828">
         <v>180033</v>
       </c>
@@ -36059,7 +36675,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="1830" spans="1:4">
+    <row r="1830" spans="1:3">
       <c r="A1830">
         <v>180041</v>
       </c>
@@ -36070,7 +36686,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="1831" spans="1:4">
+    <row r="1831" spans="1:3">
       <c r="A1831">
         <v>180042</v>
       </c>
@@ -36081,7 +36697,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="1832" spans="1:4">
+    <row r="1832" spans="1:3">
       <c r="A1832">
         <v>180043</v>
       </c>
@@ -36092,7 +36708,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="1833" spans="1:4">
+    <row r="1833" spans="1:3">
       <c r="A1833">
         <v>180044</v>
       </c>
@@ -36103,7 +36719,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1834" spans="1:4">
+    <row r="1834" spans="1:3">
       <c r="A1834">
         <v>180045</v>
       </c>
@@ -36842,7 +37458,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="1887" spans="1:4">
+    <row r="1887" spans="1:3">
       <c r="A1887">
         <v>190051</v>
       </c>
@@ -36853,7 +37469,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="1888" spans="1:4">
+    <row r="1888" spans="1:3">
       <c r="A1888">
         <v>190052</v>
       </c>
@@ -37340,7 +37956,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="1923" spans="1:4">
+    <row r="1923" spans="1:3">
       <c r="A1923">
         <v>300000</v>
       </c>
@@ -37407,7 +38023,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="1928" spans="1:4">
+    <row r="1928" spans="1:3">
       <c r="A1928">
         <v>300005</v>
       </c>
@@ -37418,7 +38034,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="1929" spans="1:4">
+    <row r="1929" spans="1:3">
       <c r="A1929">
         <v>300006</v>
       </c>
@@ -37429,7 +38045,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="1930" spans="1:4">
+    <row r="1930" spans="1:3">
       <c r="A1930">
         <v>300007</v>
       </c>
@@ -37720,7 +38336,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="1951" spans="1:4" ht="42.75" customHeight="1">
+    <row r="1951" ht="42.75" customHeight="1" spans="1:4">
       <c r="A1951">
         <v>300028</v>
       </c>
@@ -37734,7 +38350,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="1952" spans="1:4">
+    <row r="1952" spans="1:3">
       <c r="A1952">
         <v>399999</v>
       </c>
@@ -38641,7 +39257,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="2017" spans="1:4" ht="15" customHeight="1">
+    <row r="2017" ht="15" customHeight="1" spans="1:4">
       <c r="A2017">
         <v>191009</v>
       </c>
@@ -39173,7 +39789,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="2055" spans="1:4">
+    <row r="2055" spans="1:3">
       <c r="A2055">
         <v>191047</v>
       </c>
@@ -39184,7 +39800,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="2056" spans="1:4">
+    <row r="2056" spans="1:3">
       <c r="A2056">
         <v>191048</v>
       </c>
@@ -39195,7 +39811,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="2057" spans="1:4">
+    <row r="2057" spans="1:3">
       <c r="A2057">
         <v>191049</v>
       </c>
@@ -39206,7 +39822,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="2058" spans="1:4">
+    <row r="2058" spans="1:3">
       <c r="A2058">
         <v>191050</v>
       </c>
@@ -39217,7 +39833,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="2059" spans="1:4">
+    <row r="2059" spans="1:3">
       <c r="A2059">
         <v>191051</v>
       </c>
@@ -39228,7 +39844,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="2060" spans="1:4">
+    <row r="2060" spans="1:3">
       <c r="A2060">
         <v>191052</v>
       </c>
@@ -39547,7 +40163,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="2084" spans="1:4" ht="15" customHeight="1">
+    <row r="2084" ht="15" customHeight="1" spans="1:4">
       <c r="A2084">
         <v>194004</v>
       </c>
@@ -39991,7 +40607,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="2116" spans="1:4" ht="15" customHeight="1">
+    <row r="2116" ht="15" customHeight="1" spans="1:4">
       <c r="A2116">
         <v>194036</v>
       </c>
@@ -40069,7 +40685,7 @@
         <v>2382</v>
       </c>
       <c r="C2121" t="s">
-        <v>3199</v>
+        <v>3173</v>
       </c>
       <c r="D2121" t="s">
         <v>3172</v>
@@ -40080,10 +40696,10 @@
         <v>191153</v>
       </c>
       <c r="C2122" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="D2122" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="2123" spans="1:4">
@@ -40091,10 +40707,10 @@
         <v>191154</v>
       </c>
       <c r="C2123" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="D2123" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="2124" spans="1:4">
@@ -40102,18 +40718,18 @@
         <v>191159</v>
       </c>
       <c r="C2124" t="s">
-        <v>3197</v>
+        <v>3178</v>
       </c>
       <c r="D2124" t="s">
         <v>3153</v>
       </c>
     </row>
-    <row r="2125" spans="1:4">
+    <row r="2125" spans="1:3">
       <c r="A2125">
         <v>191160</v>
       </c>
       <c r="C2125" t="s">
-        <v>3198</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="2126" spans="1:4">
@@ -40124,7 +40740,7 @@
         <v>1</v>
       </c>
       <c r="C2126" t="s">
-        <v>3200</v>
+        <v>3180</v>
       </c>
       <c r="D2126" t="s">
         <v>2737</v>
@@ -40138,125 +40754,126 @@
         <v>1</v>
       </c>
       <c r="C2127" t="s">
-        <v>3201</v>
+        <v>3181</v>
       </c>
       <c r="D2127" t="s">
         <v>2737</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2127" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:D2125"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+      <selection activeCell="A20" sqref="$A20:$XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="80.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3177</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3178</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3179</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3180</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3181</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3182</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3183</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3184</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>3185</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3187</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>3188</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3189</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>3190</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>3191</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>3192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>3193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>3194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" spans="1:4">
       <c r="A20">
         <v>166071</v>
       </c>
@@ -40264,13 +40881,13 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>3195</v>
+        <v>3200</v>
       </c>
       <c r="D20" t="s">
         <v>2349</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45" customHeight="1">
+    <row r="21" ht="45" customHeight="1" spans="1:4">
       <c r="A21">
         <v>166072</v>
       </c>
@@ -40278,15 +40895,15 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>3196</v>
+        <v>3201</v>
       </c>
       <c r="D21" t="s">
         <v>2351</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
+++ b/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$2125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$D$2138</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -28,11 +28,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">admin:
+          <t>admin:
 MESSAGE_TIP = 1, // 透明框提示
   NPC_MSG = 2, // npc对话框提示
   CHANNEL_MESSAGE = 3, // 消息频道提示
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4781" uniqueCount="3220">
   <si>
     <t>ID</t>
   </si>
@@ -9675,7 +9674,7 @@
     <t>刷商人宝箱提示</t>
   </si>
   <si>
-    <t>&lt;T t="在"c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$"c="ffffff00"&gt;&lt;/T&gt;&lt;T t="地区发现了一批秘银宝箱，拥有宝箱钥匙的勇士快去试试运气吧！"c="ff261407"&gt;&lt;/T&gt;</t>
+    <t>&lt;T t="在"c="ff261407"&gt;&lt;/T&gt;&lt;T t="$parameter1$"c="ffffff00"&gt;&lt;/T&gt;&lt;T t="从天而降了一些新年宝箱！各位少侠可以开宝箱获得大量奖励"c="ff261407"&gt;&lt;/T&gt;</t>
   </si>
   <si>
     <t>刷小贩宝箱提示</t>
@@ -11951,6 +11950,60 @@
   </si>
   <si>
     <t>&lt;T t='1、装备重铸消耗金币和重铸石' c='ffff0000'/&gt;&lt;B/&gt;&lt;B/&gt;&lt;T t='2、请确定重铸前装备卸下装备上面的宝石' c='ffffff00'/&gt;&lt;B/&gt;&lt;T t='3、点化的套装重铸后会消失' c='ff00ff00'/&gt;&lt;B/&gt;&lt;T t='4、每个等级重铸的消耗不同' c='ff261407'/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;T t="&lt;神器转换公告&gt;恭喜" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="幸运的玩家" c="ffff0000"&gt;&lt;/T&gt;&lt;T t="转换了神器！" c="ff00c6ff"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
+    <t>&lt;T t="&lt;神器升级公告&gt;恭喜" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="幸运的玩家" c="ffff0000"&gt;&lt;/T&gt;&lt;T t="升级了神器！" c="ff00c6ff"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
+    <t>您已经完成了今日的皇宫飞贼任务</t>
+  </si>
+  <si>
+    <t>皇宫飞贼</t>
+  </si>
+  <si>
+    <t>您已经完成了今日的宝石副本任务</t>
+  </si>
+  <si>
+    <t>宝石副本</t>
+  </si>
+  <si>
+    <t>您已经完成了今日的兜兜副本任务</t>
+  </si>
+  <si>
+    <t>兜兜任务</t>
+  </si>
+  <si>
+    <t>您已经完成了今日的洗练石任务</t>
+  </si>
+  <si>
+    <t>洗练石副本</t>
+  </si>
+  <si>
+    <t>您已经完成了今日的法宝任务</t>
+  </si>
+  <si>
+    <t>法宝聚灵·任务</t>
+  </si>
+  <si>
+    <t>你的蚩尤挑战次数今天已经没有了</t>
+  </si>
+  <si>
+    <t>挑战蚩尤</t>
+  </si>
+  <si>
+    <t>你的自在天魔挑战次数今天已经没有了</t>
+  </si>
+  <si>
+    <t>自在天魔</t>
+  </si>
+  <si>
+    <t>&lt;T t="&lt;新年宝箱&gt;恭喜" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ffff0000"&gt;&lt;/T&gt;&lt;T t="打开了新年宝箱获得了" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter3$"c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter4$"c="ffff8c00"&gt;&lt;/T&gt;</t>
+  </si>
+  <si>
+    <t>新年宝箱</t>
   </si>
   <si>
     <t>admin:</t>
@@ -12153,12 +12206,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -12194,15 +12247,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12210,6 +12261,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12223,14 +12282,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12245,15 +12327,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12269,15 +12343,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12290,40 +12356,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12344,6 +12387,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -12351,11 +12410,6 @@
     <font>
       <sz val="10.5"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -12427,6 +12481,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -12461,6 +12520,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -12473,7 +12538,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12485,43 +12640,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12533,73 +12676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12611,7 +12688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12623,25 +12700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12670,39 +12729,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -12723,6 +12749,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12752,157 +12796,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12938,6 +12997,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -12994,6 +13062,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -13320,24 +13393,23 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2127"/>
+  <dimension ref="A1:D2139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2133" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2128" sqref="$A2128:$XFD2129"/>
+      <selection pane="bottomRight" activeCell="D2139" sqref="D2139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="151.125" customWidth="1"/>
@@ -13589,7 +13661,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="1">
@@ -21507,7 +21579,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="699" ht="16.5" spans="1:4">
+    <row r="699" spans="1:4">
       <c r="A699">
         <v>150191</v>
       </c>
@@ -26239,7 +26311,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="1040" ht="17.25" spans="1:4">
+    <row r="1040" spans="1:4">
       <c r="A1040">
         <v>160346</v>
       </c>
@@ -31378,7 +31450,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1448" customHeight="1" spans="1:4">
+    <row r="1448" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1448">
         <v>166058</v>
       </c>
@@ -32970,7 +33042,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="1563" customHeight="1" spans="1:4">
+    <row r="1563" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1563">
         <v>170012</v>
       </c>
@@ -32984,7 +33056,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="1564" customHeight="1" spans="1:4">
+    <row r="1564" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1564">
         <v>170013</v>
       </c>
@@ -32998,7 +33070,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="1565" customHeight="1" spans="1:4">
+    <row r="1565" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1565">
         <v>170014</v>
       </c>
@@ -33012,7 +33084,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="1566" customHeight="1" spans="1:4">
+    <row r="1566" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1566">
         <v>170015</v>
       </c>
@@ -33026,7 +33098,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="1567" customHeight="1" spans="1:4">
+    <row r="1567" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1567">
         <v>170016</v>
       </c>
@@ -33040,7 +33112,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="1568" customHeight="1" spans="1:4">
+    <row r="1568" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1568">
         <v>170017</v>
       </c>
@@ -33054,7 +33126,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="1569" customHeight="1" spans="1:4">
+    <row r="1569" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1569">
         <v>170018</v>
       </c>
@@ -33068,7 +33140,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="1570" customHeight="1" spans="1:4">
+    <row r="1570" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1570">
         <v>170019</v>
       </c>
@@ -33082,7 +33154,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="1571" customHeight="1" spans="1:4">
+    <row r="1571" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1571">
         <v>170020</v>
       </c>
@@ -33096,7 +33168,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="1572" customHeight="1" spans="1:4">
+    <row r="1572" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1572">
         <v>170021</v>
       </c>
@@ -33110,7 +33182,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="1573" customHeight="1" spans="1:4">
+    <row r="1573" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1573">
         <v>170022</v>
       </c>
@@ -33124,7 +33196,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="1574" customHeight="1" spans="1:4">
+    <row r="1574" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1574">
         <v>170023</v>
       </c>
@@ -33138,7 +33210,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="1575" customHeight="1" spans="1:4">
+    <row r="1575" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1575">
         <v>170024</v>
       </c>
@@ -33152,7 +33224,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="1576" customHeight="1" spans="1:4">
+    <row r="1576" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1576">
         <v>170025</v>
       </c>
@@ -33166,7 +33238,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="1577" customHeight="1" spans="1:4">
+    <row r="1577" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1577">
         <v>170026</v>
       </c>
@@ -33180,7 +33252,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="1578" customHeight="1" spans="1:4">
+    <row r="1578" ht="14.25" customHeight="1" spans="1:4">
       <c r="A1578">
         <v>170027</v>
       </c>
@@ -40760,8 +40832,173 @@
         <v>2737</v>
       </c>
     </row>
+    <row r="2128" s="1" customFormat="1" spans="1:4">
+      <c r="A2128" s="1">
+        <v>191163</v>
+      </c>
+      <c r="B2128" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2128" s="1" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D2128" s="1" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="2129" s="1" customFormat="1" spans="1:3">
+      <c r="A2129" s="1">
+        <v>191164</v>
+      </c>
+      <c r="B2129" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C2129" s="1" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="2130" s="1" customFormat="1" spans="1:4">
+      <c r="A2130" s="1">
+        <v>191165</v>
+      </c>
+      <c r="B2130" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2130" s="1" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D2130" s="1" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="2131" s="1" customFormat="1" spans="1:4">
+      <c r="A2131" s="1">
+        <v>191166</v>
+      </c>
+      <c r="B2131" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C2131" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D2131"/>
+    </row>
+    <row r="2132" spans="1:4">
+      <c r="A2132">
+        <v>193000</v>
+      </c>
+      <c r="B2132">
+        <v>5</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D2132" s="13" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:4">
+      <c r="A2133">
+        <v>193001</v>
+      </c>
+      <c r="B2133">
+        <v>5</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D2133" s="13" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:4">
+      <c r="A2134">
+        <v>193002</v>
+      </c>
+      <c r="B2134">
+        <v>5</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D2134" s="13" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:4">
+      <c r="A2135">
+        <v>193003</v>
+      </c>
+      <c r="B2135">
+        <v>5</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D2135" s="13" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:4">
+      <c r="A2136">
+        <v>193004</v>
+      </c>
+      <c r="B2136">
+        <v>5</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D2136" s="13" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:4">
+      <c r="A2137" s="14">
+        <v>193005</v>
+      </c>
+      <c r="B2137">
+        <v>5</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D2137" s="15" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:4">
+      <c r="A2138" s="14">
+        <v>193006</v>
+      </c>
+      <c r="B2138">
+        <v>5</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>3196</v>
+      </c>
+      <c r="D2138" s="15" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:4">
+      <c r="A2139" s="14">
+        <v>193007</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D2139" s="11" t="s">
+        <v>3199</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2125"/>
+  <autoFilter ref="A1:D2138">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -40770,7 +41007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -40778,99 +41015,99 @@
       <selection activeCell="A20" sqref="$A20:$XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="80.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3182</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3183</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3184</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3185</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3186</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3187</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3188</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3189</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>3190</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>3191</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3192</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>3193</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3194</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>3195</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>3196</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>3197</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>3198</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>3199</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1" spans="1:4">
@@ -40881,7 +41118,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>3200</v>
+        <v>3218</v>
       </c>
       <c r="D20" t="s">
         <v>2349</v>
@@ -40895,7 +41132,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>3201</v>
+        <v>3219</v>
       </c>
       <c r="D21" t="s">
         <v>2351</v>

--- a/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
+++ b/Table/Table_xls/客户端提示信息表/客户端提示.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28245" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4806" uniqueCount="3245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="3246">
   <si>
     <t>ID</t>
   </si>
@@ -11798,6 +11798,9 @@
     <t>&lt;T t="&lt;渡劫公告&gt;恭喜" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter1$" c="ffff0000"&gt;&lt;/T&gt;&lt;T t="击败了自在天魔获得" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter2$" c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter3$"c="ff00c6ff"&gt;&lt;/T&gt;&lt;T t="$parameter4$"c="ffff8c00"&gt;&lt;/T&gt;</t>
   </si>
   <si>
+    <t>请先卸下宠物身上所有装备再进行操作</t>
+  </si>
+  <si>
     <t>admin:</t>
   </si>
   <si>
@@ -11998,12 +12001,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -12045,7 +12048,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12058,26 +12084,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12088,9 +12098,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12104,21 +12128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -12128,44 +12137,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12181,17 +12153,48 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12267,11 +12270,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -12324,55 +12322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12390,7 +12340,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12402,7 +12430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12420,7 +12466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12432,67 +12490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12503,26 +12501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -12556,11 +12534,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12580,21 +12593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -12608,148 +12606,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13217,17 +13215,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2166"/>
+  <dimension ref="A1:D2167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2134" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2143" sqref="C2143"/>
+      <selection pane="bottomRight" activeCell="C2167" sqref="C2167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="151.125" customWidth="1"/>
@@ -21397,7 +21395,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" ht="16.5" spans="1:4">
       <c r="A699">
         <v>150191</v>
       </c>
@@ -26129,7 +26127,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="1040" spans="1:4">
+    <row r="1040" ht="17.25" spans="1:4">
       <c r="A1040">
         <v>160346</v>
       </c>
@@ -31268,7 +31266,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="1448" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1448" customHeight="1" spans="1:4">
       <c r="A1448">
         <v>166058</v>
       </c>
@@ -32860,7 +32858,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="1563" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1563" customHeight="1" spans="1:4">
       <c r="A1563">
         <v>170012</v>
       </c>
@@ -32874,7 +32872,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="1564" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1564" customHeight="1" spans="1:4">
       <c r="A1564">
         <v>170013</v>
       </c>
@@ -32888,7 +32886,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="1565" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1565" customHeight="1" spans="1:4">
       <c r="A1565">
         <v>170014</v>
       </c>
@@ -32902,7 +32900,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="1566" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1566" customHeight="1" spans="1:4">
       <c r="A1566">
         <v>170015</v>
       </c>
@@ -32916,7 +32914,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="1567" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1567" customHeight="1" spans="1:4">
       <c r="A1567">
         <v>170016</v>
       </c>
@@ -32930,7 +32928,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="1568" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1568" customHeight="1" spans="1:4">
       <c r="A1568">
         <v>170017</v>
       </c>
@@ -32944,7 +32942,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="1569" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1569" customHeight="1" spans="1:4">
       <c r="A1569">
         <v>170018</v>
       </c>
@@ -32958,7 +32956,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="1570" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1570" customHeight="1" spans="1:4">
       <c r="A1570">
         <v>170019</v>
       </c>
@@ -32972,7 +32970,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1571" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1571" customHeight="1" spans="1:4">
       <c r="A1571">
         <v>170020</v>
       </c>
@@ -32986,7 +32984,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="1572" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1572" customHeight="1" spans="1:4">
       <c r="A1572">
         <v>170021</v>
       </c>
@@ -33000,7 +32998,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="1573" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1573" customHeight="1" spans="1:4">
       <c r="A1573">
         <v>170022</v>
       </c>
@@ -33014,7 +33012,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="1574" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1574" customHeight="1" spans="1:4">
       <c r="A1574">
         <v>170023</v>
       </c>
@@ -33028,7 +33026,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="1575" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1575" customHeight="1" spans="1:4">
       <c r="A1575">
         <v>170024</v>
       </c>
@@ -33042,7 +33040,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="1576" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1576" customHeight="1" spans="1:4">
       <c r="A1576">
         <v>170025</v>
       </c>
@@ -33056,7 +33054,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="1577" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1577" customHeight="1" spans="1:4">
       <c r="A1577">
         <v>170026</v>
       </c>
@@ -33070,7 +33068,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="1578" ht="14.25" customHeight="1" spans="1:4">
+    <row r="1578" customHeight="1" spans="1:4">
       <c r="A1578">
         <v>170027</v>
       </c>
@@ -41199,6 +41197,17 @@
       </c>
       <c r="D2166" s="22" t="s">
         <v>3200</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:3">
+      <c r="A2167">
+        <v>193034</v>
+      </c>
+      <c r="B2167">
+        <v>5</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>3225</v>
       </c>
     </row>
   </sheetData>
@@ -41221,99 +41230,99 @@
       <selection activeCell="A20" sqref="$A20:$XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="80.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1" spans="1:4">
@@ -41324,7 +41333,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="D20" t="s">
         <v>2350</v>
@@ -41338,7 +41347,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="D21" t="s">
         <v>2352</v>
